--- a/capiq_data/in_process_data/IQ279042.xlsx
+++ b/capiq_data/in_process_data/IQ279042.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441560F8-7008-4DD2-880C-89CF9B7DA460}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69620A58-D4CE-4E24-85B9-D437FB9C30A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"dc8261fa-a7d7-4bcd-8340-5ea5a6da124c"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"05a31fd5-f91c-4f88-bbdc-d39c6c281f76"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
   </si>
   <si>
     <t>FQ12011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40573</v>
+        <v>36918</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>148.82599999999999</v>
+        <v>41.531999999999996</v>
       </c>
       <c r="D2">
-        <v>1921.558</v>
+        <v>891.24699999999996</v>
       </c>
       <c r="E2">
-        <v>406.67700000000002</v>
+        <v>256.791</v>
       </c>
       <c r="F2">
-        <v>374.005</v>
+        <v>210.76900000000001</v>
       </c>
       <c r="G2">
-        <v>1949.23</v>
+        <v>718.94</v>
       </c>
       <c r="H2">
-        <v>4122.9480000000003</v>
+        <v>1660.123</v>
       </c>
       <c r="I2">
-        <v>267.81400000000002</v>
+        <v>140.012</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>147.274</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -769,81 +889,81 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-5.992</v>
       </c>
       <c r="N2">
-        <v>1020.203</v>
+        <v>336.42899999999997</v>
       </c>
       <c r="O2">
-        <v>1570.9639999999999</v>
+        <v>763.87800000000004</v>
       </c>
       <c r="P2">
-        <v>350</v>
+        <v>186.88200000000001</v>
       </c>
       <c r="Q2">
-        <v>130.96799999999999</v>
+        <v>37.939</v>
       </c>
       <c r="R2">
-        <v>40573</v>
+        <v>36918</v>
       </c>
       <c r="S2">
-        <v>19300</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2551.9839999999999</v>
+        <v>896.245</v>
       </c>
       <c r="U2">
-        <v>598.81299999999999</v>
+        <v>138.58500000000001</v>
       </c>
       <c r="V2">
-        <v>165.33199999999999</v>
+        <v>83.61</v>
       </c>
       <c r="W2">
-        <v>-27.904</v>
+        <v>-12.141999999999999</v>
       </c>
       <c r="X2">
-        <v>-16.873000000000001</v>
+        <v>-3.8530000000000002</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>4.1429999999999998</v>
+        <v>-15.186999999999999</v>
       </c>
       <c r="AA2">
-        <v>148.82599999999999</v>
+        <v>41.531999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40664</v>
+        <v>37009</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>109.57899999999999</v>
+        <v>38.893999999999998</v>
       </c>
       <c r="D3">
-        <v>1959.0409999999999</v>
+        <v>961.79200000000003</v>
       </c>
       <c r="E3">
-        <v>405.79199999999997</v>
+        <v>298.35300000000001</v>
       </c>
       <c r="F3">
-        <v>326.22699999999998</v>
+        <v>209.37299999999999</v>
       </c>
       <c r="G3">
-        <v>2287.2040000000002</v>
+        <v>726.553</v>
       </c>
       <c r="H3">
-        <v>4451.4170000000004</v>
+        <v>2051.4899999999998</v>
       </c>
       <c r="I3">
-        <v>277.11599999999999</v>
+        <v>151.839</v>
       </c>
       <c r="J3">
-        <v>250</v>
+        <v>457.928</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1005.936</v>
+        <v>378.66899999999998</v>
       </c>
       <c r="O3">
-        <v>1808.1690000000001</v>
+        <v>1126.489</v>
       </c>
       <c r="P3">
-        <v>600</v>
+        <v>493.61099999999999</v>
       </c>
       <c r="Q3">
-        <v>314.89100000000002</v>
+        <v>-69.206999999999994</v>
       </c>
       <c r="R3">
-        <v>40664</v>
+        <v>37009</v>
       </c>
       <c r="S3">
-        <v>19200</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2643.248</v>
+        <v>925.00099999999998</v>
       </c>
       <c r="U3">
-        <v>913.70399999999995</v>
+        <v>69.378</v>
       </c>
       <c r="V3">
-        <v>110.587</v>
+        <v>87.411000000000001</v>
       </c>
       <c r="W3">
-        <v>-34.021000000000001</v>
+        <v>-12.807</v>
       </c>
       <c r="X3">
-        <v>217.75800000000001</v>
+        <v>286.50299999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>4.3220000000000001</v>
+        <v>2.113</v>
       </c>
       <c r="AA3">
-        <v>109.57899999999999</v>
+        <v>38.893999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40755</v>
+        <v>37100</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>98.480999999999995</v>
+        <v>33.212000000000003</v>
       </c>
       <c r="D4">
-        <v>1910.5920000000001</v>
+        <v>976.97699999999998</v>
       </c>
       <c r="E4">
-        <v>427.92700000000002</v>
+        <v>305.55900000000003</v>
       </c>
       <c r="F4">
-        <v>297.85500000000002</v>
+        <v>210.446</v>
       </c>
       <c r="G4">
-        <v>1977.1210000000001</v>
+        <v>809.57</v>
       </c>
       <c r="H4">
-        <v>4149.5290000000005</v>
+        <v>2121.5970000000002</v>
       </c>
       <c r="I4">
-        <v>301.57799999999997</v>
+        <v>149.15</v>
       </c>
       <c r="J4">
-        <v>250</v>
+        <v>487.899</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>700.96299999999997</v>
+        <v>399.92700000000002</v>
       </c>
       <c r="O4">
-        <v>1482.914</v>
+        <v>1173.588</v>
       </c>
       <c r="P4">
-        <v>250</v>
+        <v>526.49900000000002</v>
       </c>
       <c r="Q4">
-        <v>-416.34</v>
+        <v>80.373000000000005</v>
       </c>
       <c r="R4">
-        <v>40755</v>
+        <v>37100</v>
       </c>
       <c r="S4">
-        <v>19400</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2666.6149999999998</v>
+        <v>948.00900000000001</v>
       </c>
       <c r="U4">
-        <v>497.36399999999998</v>
+        <v>149.751</v>
       </c>
       <c r="V4">
-        <v>43.506</v>
+        <v>75.588999999999999</v>
       </c>
       <c r="W4">
-        <v>-34.066000000000003</v>
+        <v>-12.829000000000001</v>
       </c>
       <c r="X4">
-        <v>-419.97699999999998</v>
+        <v>31.817</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-21.454999999999998</v>
+        <v>-6.9119999999999999</v>
       </c>
       <c r="AA4">
-        <v>98.480999999999995</v>
+        <v>33.212000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40846</v>
+        <v>37191</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>117.309</v>
+        <v>68.802999999999997</v>
       </c>
       <c r="D5">
-        <v>2103.8980000000001</v>
+        <v>1055.2280000000001</v>
       </c>
       <c r="E5">
-        <v>461.11</v>
+        <v>308.11500000000001</v>
       </c>
       <c r="F5">
-        <v>336.02600000000001</v>
+        <v>265.31900000000002</v>
       </c>
       <c r="G5">
-        <v>1998.231</v>
+        <v>883.28099999999995</v>
       </c>
       <c r="H5">
-        <v>4244.3909999999996</v>
+        <v>2162.6979999999999</v>
       </c>
       <c r="I5">
-        <v>390.17099999999999</v>
+        <v>171.17699999999999</v>
       </c>
       <c r="J5">
-        <v>250</v>
+        <v>462.40699999999998</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>778.18600000000004</v>
+        <v>420.20299999999997</v>
       </c>
       <c r="O5">
-        <v>1584.575</v>
+        <v>1166.817</v>
       </c>
       <c r="P5">
-        <v>250</v>
+        <v>501.44099999999997</v>
       </c>
       <c r="Q5">
-        <v>-34.234000000000002</v>
+        <v>36.524999999999999</v>
       </c>
       <c r="R5">
-        <v>40846</v>
+        <v>37191</v>
       </c>
       <c r="S5">
-        <v>19500</v>
+        <v>15600</v>
       </c>
       <c r="T5">
-        <v>2659.8159999999998</v>
+        <v>995.88099999999997</v>
       </c>
       <c r="U5">
-        <v>463.13</v>
+        <v>186.27600000000001</v>
       </c>
       <c r="V5">
-        <v>171.054</v>
+        <v>73.83</v>
       </c>
       <c r="W5">
-        <v>-33.984000000000002</v>
+        <v>-12.845000000000001</v>
       </c>
       <c r="X5">
-        <v>-106.41</v>
+        <v>-42.33</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-58.262999999999998</v>
+        <v>24.196999999999999</v>
       </c>
       <c r="AA5">
-        <v>117.309</v>
+        <v>68.802999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40937</v>
+        <v>37282</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>128.39500000000001</v>
+        <v>50.350999999999999</v>
       </c>
       <c r="D6">
-        <v>2039.4390000000001</v>
+        <v>983.01400000000001</v>
       </c>
       <c r="E6">
-        <v>422.505</v>
+        <v>260.37299999999999</v>
       </c>
       <c r="F6">
-        <v>337.40899999999999</v>
+        <v>246.25200000000001</v>
       </c>
       <c r="G6">
-        <v>2021.731</v>
+        <v>899.11</v>
       </c>
       <c r="H6">
-        <v>4270.2939999999999</v>
+        <v>2174.2950000000001</v>
       </c>
       <c r="I6">
-        <v>308.721</v>
+        <v>161.75</v>
       </c>
       <c r="J6">
-        <v>250</v>
+        <v>459.03500000000003</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1101,81 +1221,81 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-5.9560000000000004</v>
       </c>
       <c r="N6">
-        <v>724.58600000000001</v>
+        <v>395.471</v>
       </c>
       <c r="O6">
-        <v>1531.1880000000001</v>
+        <v>1137.9670000000001</v>
       </c>
       <c r="P6">
-        <v>250</v>
+        <v>500.49799999999999</v>
       </c>
       <c r="Q6">
-        <v>85.488</v>
+        <v>29.959</v>
       </c>
       <c r="R6">
-        <v>40937</v>
+        <v>37282</v>
       </c>
       <c r="S6">
-        <v>19600</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2739.1060000000002</v>
+        <v>1036.328</v>
       </c>
       <c r="U6">
-        <v>548.61800000000005</v>
+        <v>216.23500000000001</v>
       </c>
       <c r="V6">
-        <v>152.16</v>
+        <v>66.835999999999999</v>
       </c>
       <c r="W6">
-        <v>-33.6</v>
+        <v>-12.827</v>
       </c>
       <c r="X6">
-        <v>-38.902999999999999</v>
+        <v>-16.613</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.998</v>
+        <v>-10.182</v>
       </c>
       <c r="AA6">
-        <v>128.39500000000001</v>
+        <v>50.350999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41028</v>
+        <v>37373</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>127.887</v>
+        <v>32.74</v>
       </c>
       <c r="D7">
-        <v>2012.8589999999999</v>
+        <v>954.62699999999995</v>
       </c>
       <c r="E7">
-        <v>439.34800000000001</v>
+        <v>242.89</v>
       </c>
       <c r="F7">
-        <v>335.60700000000003</v>
+        <v>224.05699999999999</v>
       </c>
       <c r="G7">
-        <v>2060.0749999999998</v>
+        <v>932.86400000000003</v>
       </c>
       <c r="H7">
-        <v>4314.6629999999996</v>
+        <v>2203.92</v>
       </c>
       <c r="I7">
-        <v>318.43200000000002</v>
+        <v>147.554</v>
       </c>
       <c r="J7">
-        <v>250</v>
+        <v>420.49900000000002</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>699.96799999999996</v>
+        <v>444.91399999999999</v>
       </c>
       <c r="O7">
-        <v>1508.84</v>
+        <v>1149.2270000000001</v>
       </c>
       <c r="P7">
-        <v>250</v>
+        <v>498.44</v>
       </c>
       <c r="Q7">
-        <v>-23.838999999999999</v>
+        <v>77.725999999999999</v>
       </c>
       <c r="R7">
-        <v>41028</v>
+        <v>37373</v>
       </c>
       <c r="S7">
-        <v>19600</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>2805.8229999999999</v>
+        <v>1054.693</v>
       </c>
       <c r="U7">
-        <v>524.779</v>
+        <v>293.96100000000001</v>
       </c>
       <c r="V7">
-        <v>60.871000000000002</v>
+        <v>98.055999999999997</v>
       </c>
       <c r="W7">
-        <v>-39.585999999999999</v>
+        <v>-13.523</v>
       </c>
       <c r="X7">
-        <v>-61.709000000000003</v>
+        <v>-13.978999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>3.7480000000000002</v>
+        <v>7.5</v>
       </c>
       <c r="AA7">
-        <v>127.887</v>
+        <v>32.74</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41119</v>
+        <v>37464</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>111.167</v>
+        <v>38.261000000000003</v>
       </c>
       <c r="D8">
-        <v>2008.1880000000001</v>
+        <v>933.77800000000002</v>
       </c>
       <c r="E8">
-        <v>474.42500000000001</v>
+        <v>251.01900000000001</v>
       </c>
       <c r="F8">
-        <v>307.05599999999998</v>
+        <v>226.81</v>
       </c>
       <c r="G8">
-        <v>2117.2579999999998</v>
+        <v>910.92100000000005</v>
       </c>
       <c r="H8">
-        <v>4382.6189999999997</v>
+        <v>2179.652</v>
       </c>
       <c r="I8">
-        <v>289.21199999999999</v>
+        <v>149.273</v>
       </c>
       <c r="J8">
-        <v>250</v>
+        <v>420.84199999999998</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>676.71</v>
+        <v>397.29199999999997</v>
       </c>
       <c r="O8">
-        <v>1486.42</v>
+        <v>1103.0930000000001</v>
       </c>
       <c r="P8">
-        <v>250</v>
+        <v>446.327</v>
       </c>
       <c r="Q8">
-        <v>8.4380000000000006</v>
+        <v>-26.492999999999999</v>
       </c>
       <c r="R8">
-        <v>41119</v>
+        <v>37464</v>
       </c>
       <c r="S8">
-        <v>19700</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>2896.1990000000001</v>
+        <v>1076.559</v>
       </c>
       <c r="U8">
-        <v>533.21699999999998</v>
+        <v>267.46800000000002</v>
       </c>
       <c r="V8">
-        <v>71.022000000000006</v>
+        <v>63.805999999999997</v>
       </c>
       <c r="W8">
-        <v>-39.497</v>
+        <v>-13.532999999999999</v>
       </c>
       <c r="X8">
-        <v>-41.252000000000002</v>
+        <v>-69.861999999999995</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>12.914999999999999</v>
+        <v>-7.6779999999999999</v>
       </c>
       <c r="AA8">
-        <v>111.167</v>
+        <v>38.261000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41210</v>
+        <v>37555</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>132.601</v>
+        <v>67.97</v>
       </c>
       <c r="D9">
-        <v>2170.1840000000002</v>
+        <v>1038.895</v>
       </c>
       <c r="E9">
-        <v>507.041</v>
+        <v>275.45999999999998</v>
       </c>
       <c r="F9">
-        <v>351.779</v>
+        <v>265.73399999999998</v>
       </c>
       <c r="G9">
-        <v>2320.6840000000002</v>
+        <v>962.17</v>
       </c>
       <c r="H9">
-        <v>4563.9660000000003</v>
+        <v>2220.1959999999999</v>
       </c>
       <c r="I9">
-        <v>385.87700000000001</v>
+        <v>174.07</v>
       </c>
       <c r="J9">
-        <v>250</v>
+        <v>409.64800000000002</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>786.3</v>
+        <v>410.11099999999999</v>
       </c>
       <c r="O9">
-        <v>1739.0409999999999</v>
+        <v>1104.941</v>
       </c>
       <c r="P9">
-        <v>250</v>
+        <v>423.46800000000002</v>
       </c>
       <c r="Q9">
-        <v>149.17099999999999</v>
+        <v>42.094999999999999</v>
       </c>
       <c r="R9">
-        <v>41210</v>
+        <v>37555</v>
       </c>
       <c r="S9">
-        <v>19700</v>
+        <v>15500</v>
       </c>
       <c r="T9">
-        <v>2824.9250000000002</v>
+        <v>1115.2550000000001</v>
       </c>
       <c r="U9">
-        <v>682.38800000000003</v>
+        <v>309.56299999999999</v>
       </c>
       <c r="V9">
-        <v>233.72800000000001</v>
+        <v>98.162999999999997</v>
       </c>
       <c r="W9">
-        <v>-39.521000000000001</v>
+        <v>-13.554</v>
       </c>
       <c r="X9">
-        <v>-50.884999999999998</v>
+        <v>-42.508000000000003</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>3.4820000000000002</v>
+        <v>4.8890000000000002</v>
       </c>
       <c r="AA9">
-        <v>132.601</v>
+        <v>67.97</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41301</v>
+        <v>37646</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>129.71600000000001</v>
+        <v>46.94</v>
       </c>
       <c r="D10">
-        <v>2116.241</v>
+        <v>1018.45</v>
       </c>
       <c r="E10">
-        <v>466.536</v>
+        <v>251.096</v>
       </c>
       <c r="F10">
-        <v>344.19299999999998</v>
+        <v>252.16499999999999</v>
       </c>
       <c r="G10">
-        <v>2399.8449999999998</v>
+        <v>811.66399999999999</v>
       </c>
       <c r="H10">
-        <v>4622.83</v>
+        <v>2230.9490000000001</v>
       </c>
       <c r="I10">
-        <v>324.36700000000002</v>
+        <v>170.87899999999999</v>
       </c>
       <c r="J10">
-        <v>250</v>
+        <v>408.72699999999998</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1433,81 +1553,81 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-0.93200000000000005</v>
       </c>
       <c r="N10">
-        <v>737.38599999999997</v>
+        <v>381.517</v>
       </c>
       <c r="O10">
-        <v>1688.8779999999999</v>
+        <v>1078.6500000000001</v>
       </c>
       <c r="P10">
-        <v>250</v>
+        <v>422.536</v>
       </c>
       <c r="Q10">
-        <v>205.28899999999999</v>
+        <v>-176.48099999999999</v>
       </c>
       <c r="R10">
-        <v>41301</v>
+        <v>37646</v>
       </c>
       <c r="S10">
-        <v>19600</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>2933.9520000000002</v>
+        <v>1152.299</v>
       </c>
       <c r="U10">
-        <v>887.67700000000002</v>
+        <v>133.08199999999999</v>
       </c>
       <c r="V10">
-        <v>141.81299999999999</v>
+        <v>23.72</v>
       </c>
       <c r="W10">
-        <v>-39.438000000000002</v>
+        <v>-13.484</v>
       </c>
       <c r="X10">
-        <v>-2.9550000000000001</v>
+        <v>-15.946</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>85.477000000000004</v>
+        <v>-53.695</v>
       </c>
       <c r="AA10">
-        <v>129.71600000000001</v>
+        <v>46.94</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41392</v>
+        <v>37737</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>125.52</v>
+        <v>33.801000000000002</v>
       </c>
       <c r="D11">
-        <v>2152.6860000000001</v>
+        <v>1002.602</v>
       </c>
       <c r="E11">
-        <v>462.23899999999998</v>
+        <v>242.779</v>
       </c>
       <c r="F11">
-        <v>352.80099999999999</v>
+        <v>238.44800000000001</v>
       </c>
       <c r="G11">
-        <v>1832.34</v>
+        <v>831.63699999999994</v>
       </c>
       <c r="H11">
-        <v>4667.6409999999996</v>
+        <v>2267.4050000000002</v>
       </c>
       <c r="I11">
-        <v>315.04000000000002</v>
+        <v>154.75700000000001</v>
       </c>
       <c r="J11">
-        <v>250</v>
+        <v>408.01900000000001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>707.89400000000001</v>
+        <v>385.77499999999998</v>
       </c>
       <c r="O11">
-        <v>1649.809</v>
+        <v>1089.0129999999999</v>
       </c>
       <c r="P11">
-        <v>250</v>
+        <v>421.83100000000002</v>
       </c>
       <c r="Q11">
-        <v>-624.92899999999997</v>
+        <v>23.896999999999998</v>
       </c>
       <c r="R11">
-        <v>41392</v>
+        <v>37737</v>
       </c>
       <c r="S11">
-        <v>19700</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>3017.8319999999999</v>
+        <v>1178.3920000000001</v>
       </c>
       <c r="U11">
-        <v>262.74799999999999</v>
+        <v>156.97900000000001</v>
       </c>
       <c r="V11">
-        <v>115.745</v>
+        <v>58.707000000000001</v>
       </c>
       <c r="W11">
-        <v>-44.966999999999999</v>
+        <v>-14.532999999999999</v>
       </c>
       <c r="X11">
-        <v>-42.625</v>
+        <v>-16.946999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-12.935</v>
+        <v>5.0650000000000004</v>
       </c>
       <c r="AA11">
-        <v>125.52</v>
+        <v>33.801000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41483</v>
+        <v>37828</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>113.63500000000001</v>
+        <v>34.673000000000002</v>
       </c>
       <c r="D12">
-        <v>2159.5250000000001</v>
+        <v>1009.395</v>
       </c>
       <c r="E12">
-        <v>514.39800000000002</v>
+        <v>264.48500000000001</v>
       </c>
       <c r="F12">
-        <v>330.30599999999998</v>
+        <v>227.18700000000001</v>
       </c>
       <c r="G12">
-        <v>1951.59</v>
+        <v>827.38099999999997</v>
       </c>
       <c r="H12">
-        <v>4761.2489999999998</v>
+        <v>2298.933</v>
       </c>
       <c r="I12">
-        <v>369.887</v>
+        <v>171.084</v>
       </c>
       <c r="J12">
-        <v>250</v>
+        <v>407.03100000000001</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>789.48400000000004</v>
+        <v>399.49299999999999</v>
       </c>
       <c r="O12">
-        <v>1707.365</v>
+        <v>1097.421</v>
       </c>
       <c r="P12">
-        <v>250</v>
+        <v>420.81700000000001</v>
       </c>
       <c r="Q12">
-        <v>66.748000000000005</v>
+        <v>-18.193999999999999</v>
       </c>
       <c r="R12">
-        <v>41483</v>
+        <v>37828</v>
       </c>
       <c r="S12">
-        <v>19800</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>3053.884</v>
+        <v>1201.5119999999999</v>
       </c>
       <c r="U12">
-        <v>329.49599999999998</v>
+        <v>138.785</v>
       </c>
       <c r="V12">
-        <v>171.291</v>
+        <v>59.823999999999998</v>
       </c>
       <c r="W12">
-        <v>-45.021000000000001</v>
+        <v>-14.526</v>
       </c>
       <c r="X12">
-        <v>-81.316000000000003</v>
+        <v>-12.682</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.20599999999999999</v>
+        <v>-52.915999999999997</v>
       </c>
       <c r="AA12">
-        <v>113.63500000000001</v>
+        <v>34.673000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41574</v>
+        <v>37919</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>157.34</v>
+        <v>70.364999999999995</v>
       </c>
       <c r="D13">
-        <v>2323.2020000000002</v>
+        <v>1169.8810000000001</v>
       </c>
       <c r="E13">
-        <v>551.5</v>
+        <v>291.48099999999999</v>
       </c>
       <c r="F13">
-        <v>385.51600000000002</v>
+        <v>297.85300000000001</v>
       </c>
       <c r="G13">
-        <v>2047.413</v>
+        <v>823.97400000000005</v>
       </c>
       <c r="H13">
-        <v>4915.88</v>
+        <v>2393.1210000000001</v>
       </c>
       <c r="I13">
-        <v>387.28399999999999</v>
+        <v>195.82599999999999</v>
       </c>
       <c r="J13">
-        <v>250</v>
+        <v>395.27300000000002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>784.00900000000001</v>
+        <v>441.99</v>
       </c>
       <c r="O13">
-        <v>1599.3009999999999</v>
+        <v>1140.386</v>
       </c>
       <c r="P13">
-        <v>250</v>
+        <v>409.56799999999998</v>
       </c>
       <c r="Q13">
-        <v>104.518</v>
+        <v>-40.808999999999997</v>
       </c>
       <c r="R13">
-        <v>41574</v>
+        <v>37919</v>
       </c>
       <c r="S13">
-        <v>19800</v>
+        <v>16000</v>
       </c>
       <c r="T13">
-        <v>3316.5790000000002</v>
+        <v>1252.7349999999999</v>
       </c>
       <c r="U13">
-        <v>434.01400000000001</v>
+        <v>97.975999999999999</v>
       </c>
       <c r="V13">
-        <v>208.95599999999999</v>
+        <v>110.999</v>
       </c>
       <c r="W13">
-        <v>-44.893999999999998</v>
+        <v>-14.548999999999999</v>
       </c>
       <c r="X13">
-        <v>-68.625</v>
+        <v>-24.981999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-1.8089999999999999</v>
+        <v>10.255000000000001</v>
       </c>
       <c r="AA13">
-        <v>157.34</v>
+        <v>70.364999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41665</v>
+        <v>38010</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>153.34800000000001</v>
+        <v>51.826000000000001</v>
       </c>
       <c r="D14">
-        <v>2242.672</v>
+        <v>1135.5329999999999</v>
       </c>
       <c r="E14">
-        <v>505.024</v>
+        <v>266.36900000000003</v>
       </c>
       <c r="F14">
-        <v>398.642</v>
+        <v>271.77600000000001</v>
       </c>
       <c r="G14">
-        <v>2166.8330000000001</v>
+        <v>827.21199999999999</v>
       </c>
       <c r="H14">
-        <v>5067.17</v>
+        <v>2416.384</v>
       </c>
       <c r="I14">
-        <v>354.83199999999999</v>
+        <v>202.58099999999999</v>
       </c>
       <c r="J14">
-        <v>250</v>
+        <v>395.25599999999997</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,81 +1885,81 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-2.351</v>
       </c>
       <c r="N14">
-        <v>824.52499999999998</v>
+        <v>419.654</v>
       </c>
       <c r="O14">
-        <v>1642.739</v>
+        <v>1117.2049999999999</v>
       </c>
       <c r="P14">
-        <v>250</v>
+        <v>407.21699999999998</v>
       </c>
       <c r="Q14">
-        <v>205.83</v>
+        <v>-16.038</v>
       </c>
       <c r="R14">
-        <v>41665</v>
+        <v>38010</v>
       </c>
       <c r="S14">
-        <v>19700</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>3424.431</v>
+        <v>1299.1790000000001</v>
       </c>
       <c r="U14">
-        <v>639.84400000000005</v>
+        <v>81.938000000000002</v>
       </c>
       <c r="V14">
-        <v>314.29199999999997</v>
+        <v>31.15</v>
       </c>
       <c r="W14">
-        <v>-44.832999999999998</v>
+        <v>-14.55</v>
       </c>
       <c r="X14">
-        <v>-37.284999999999997</v>
+        <v>-23.481000000000002</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>4.0279999999999996</v>
+        <v>-6.4109999999999996</v>
       </c>
       <c r="AA14">
-        <v>153.34800000000001</v>
+        <v>51.826000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41756</v>
+        <v>38101</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>140.09</v>
+        <v>53.651000000000003</v>
       </c>
       <c r="D15">
-        <v>2244.866</v>
+        <v>1143.127</v>
       </c>
       <c r="E15">
-        <v>515.16099999999994</v>
+        <v>253.16300000000001</v>
       </c>
       <c r="F15">
-        <v>378.75799999999998</v>
+        <v>273.41899999999998</v>
       </c>
       <c r="G15">
-        <v>2172.6120000000001</v>
+        <v>949.58799999999997</v>
       </c>
       <c r="H15">
-        <v>5085.8239999999996</v>
+        <v>2464.076</v>
       </c>
       <c r="I15">
-        <v>339.35399999999998</v>
+        <v>194.36699999999999</v>
       </c>
       <c r="J15">
-        <v>250</v>
+        <v>376.95299999999997</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>751.99400000000003</v>
+        <v>452.78199999999998</v>
       </c>
       <c r="O15">
-        <v>1572.68</v>
+        <v>1130.2449999999999</v>
       </c>
       <c r="P15">
-        <v>250</v>
+        <v>388.01299999999998</v>
       </c>
       <c r="Q15">
-        <v>-140.51400000000001</v>
+        <v>110.298</v>
       </c>
       <c r="R15">
-        <v>41756</v>
+        <v>38101</v>
       </c>
       <c r="S15">
-        <v>20100</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>3513.1439999999998</v>
+        <v>1333.8309999999999</v>
       </c>
       <c r="U15">
-        <v>499.33</v>
+        <v>192.23599999999999</v>
       </c>
       <c r="V15">
-        <v>-39.256999999999998</v>
+        <v>99.941999999999993</v>
       </c>
       <c r="W15">
-        <v>-52.761000000000003</v>
+        <v>-15.571999999999999</v>
       </c>
       <c r="X15">
-        <v>-59.850999999999999</v>
+        <v>-29.143999999999998</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-4.1390000000000002</v>
+        <v>57.872</v>
       </c>
       <c r="AA15">
-        <v>140.09</v>
+        <v>53.651000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41847</v>
+        <v>38192</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>137.97499999999999</v>
+        <v>56.343000000000004</v>
       </c>
       <c r="D16">
-        <v>2284.9470000000001</v>
+        <v>1155.999</v>
       </c>
       <c r="E16">
-        <v>536.505</v>
+        <v>258.22899999999998</v>
       </c>
       <c r="F16">
-        <v>363.99900000000002</v>
+        <v>256.928</v>
       </c>
       <c r="G16">
-        <v>2245.0410000000002</v>
+        <v>997.80700000000002</v>
       </c>
       <c r="H16">
-        <v>5188.433</v>
+        <v>2503.2800000000002</v>
       </c>
       <c r="I16">
-        <v>358.01600000000002</v>
+        <v>192.24199999999999</v>
       </c>
       <c r="J16">
-        <v>250</v>
+        <v>372.23899999999998</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>785.09900000000005</v>
+        <v>454.61700000000002</v>
       </c>
       <c r="O16">
-        <v>1608.8530000000001</v>
+        <v>1133.7070000000001</v>
       </c>
       <c r="P16">
-        <v>250</v>
+        <v>387.99900000000002</v>
       </c>
       <c r="Q16">
-        <v>31.646999999999998</v>
+        <v>48.119</v>
       </c>
       <c r="R16">
-        <v>41847</v>
+        <v>38192</v>
       </c>
       <c r="S16">
-        <v>20200</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>3579.58</v>
+        <v>1369.5730000000001</v>
       </c>
       <c r="U16">
-        <v>530.97699999999998</v>
+        <v>240.35499999999999</v>
       </c>
       <c r="V16">
-        <v>119.331</v>
+        <v>39.667999999999999</v>
       </c>
       <c r="W16">
-        <v>-52.765999999999998</v>
+        <v>-15.606999999999999</v>
       </c>
       <c r="X16">
-        <v>-54.981999999999999</v>
+        <v>-18.829000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>1.016</v>
+        <v>-76.658000000000001</v>
       </c>
       <c r="AA16">
-        <v>137.97499999999999</v>
+        <v>56.343000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41938</v>
+        <v>38290</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>171.26400000000001</v>
+        <v>69.843000000000004</v>
       </c>
       <c r="D17">
-        <v>2543.7710000000002</v>
+        <v>1345.2159999999999</v>
       </c>
       <c r="E17">
-        <v>609.52599999999995</v>
+        <v>272.738</v>
       </c>
       <c r="F17">
-        <v>428.084</v>
+        <v>318.88200000000001</v>
       </c>
       <c r="G17">
-        <v>2132.7710000000002</v>
+        <v>1029.403</v>
       </c>
       <c r="H17">
-        <v>5455.6189999999997</v>
+        <v>2533.9679999999998</v>
       </c>
       <c r="I17">
-        <v>484.04199999999997</v>
+        <v>203.56299999999999</v>
       </c>
       <c r="J17">
-        <v>250</v>
+        <v>361.51</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>954.69200000000001</v>
+        <v>464.36599999999999</v>
       </c>
       <c r="O17">
-        <v>1843.5630000000001</v>
+        <v>1134.72</v>
       </c>
       <c r="P17">
-        <v>250</v>
+        <v>377.27</v>
       </c>
       <c r="Q17">
-        <v>-196.803</v>
+        <v>-60.473999999999997</v>
       </c>
       <c r="R17">
-        <v>41938</v>
+        <v>38290</v>
       </c>
       <c r="S17">
-        <v>20400</v>
+        <v>15600</v>
       </c>
       <c r="T17">
-        <v>3612.056</v>
+        <v>1399.248</v>
       </c>
       <c r="U17">
-        <v>334.17399999999998</v>
+        <v>179.881</v>
       </c>
       <c r="V17">
-        <v>352.51299999999998</v>
+        <v>123.97</v>
       </c>
       <c r="W17">
-        <v>-52.795999999999999</v>
+        <v>-15.614000000000001</v>
       </c>
       <c r="X17">
-        <v>-77.251999999999995</v>
+        <v>-50.69</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-2.6230000000000002</v>
+        <v>-93.346000000000004</v>
       </c>
       <c r="AA17">
-        <v>171.26400000000001</v>
+        <v>69.843000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42029</v>
+        <v>38382</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>171.71799999999999</v>
+        <v>64.632999999999996</v>
       </c>
       <c r="D18">
-        <v>2395.0729999999999</v>
+        <v>1271.431</v>
       </c>
       <c r="E18">
-        <v>578.23800000000006</v>
+        <v>282.35899999999998</v>
       </c>
       <c r="F18">
-        <v>455.13099999999997</v>
+        <v>312.06799999999998</v>
       </c>
       <c r="G18">
-        <v>2246.3310000000001</v>
+        <v>943.33199999999999</v>
       </c>
       <c r="H18">
-        <v>5559.6229999999996</v>
+        <v>2605.404</v>
       </c>
       <c r="I18">
-        <v>407.41899999999998</v>
+        <v>219.59899999999999</v>
       </c>
       <c r="J18">
-        <v>250</v>
+        <v>361.495</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,84 +2217,84 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="N18">
-        <v>937.30399999999997</v>
+        <v>488.42399999999998</v>
       </c>
       <c r="O18">
-        <v>1827.307</v>
+        <v>1154.8430000000001</v>
       </c>
       <c r="P18">
-        <v>250</v>
+        <v>377.255</v>
       </c>
       <c r="Q18">
-        <v>192.923</v>
+        <v>-41.676000000000002</v>
       </c>
       <c r="R18">
-        <v>42029</v>
+        <v>38382</v>
       </c>
       <c r="S18">
-        <v>20600</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>3732.3159999999998</v>
+        <v>1450.5609999999999</v>
       </c>
       <c r="U18">
-        <v>527.09699999999998</v>
+        <v>145.20500000000001</v>
       </c>
       <c r="V18">
-        <v>246.50200000000001</v>
+        <v>83.475999999999999</v>
       </c>
       <c r="W18">
-        <v>-52.801000000000002</v>
+        <v>-15.516</v>
       </c>
       <c r="X18">
-        <v>-49.362000000000002</v>
+        <v>-12.074999999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>14.932</v>
+        <v>99.412999999999997</v>
       </c>
       <c r="AA18">
-        <v>171.71799999999999</v>
+        <v>64.632999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42120</v>
+        <v>38473</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>180.20099999999999</v>
+        <v>55.978000000000002</v>
       </c>
       <c r="D19">
-        <v>2279.3449999999998</v>
+        <v>1309.6369999999999</v>
       </c>
       <c r="E19">
-        <v>578.726</v>
+        <v>288.22699999999998</v>
       </c>
       <c r="F19">
-        <v>459.55599999999998</v>
+        <v>302.94600000000003</v>
       </c>
       <c r="G19">
-        <v>2302.431</v>
+        <v>939.82100000000003</v>
       </c>
       <c r="H19">
-        <v>5622.9979999999996</v>
+        <v>2724.913</v>
       </c>
       <c r="I19">
-        <v>385.85500000000002</v>
+        <v>209.33099999999999</v>
       </c>
       <c r="J19">
-        <v>250</v>
+        <v>361.17599999999999</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>870.18200000000002</v>
+        <v>562.67899999999997</v>
       </c>
       <c r="O19">
-        <v>1779.183</v>
+        <v>1231.3330000000001</v>
       </c>
       <c r="P19">
-        <v>250</v>
+        <v>466.95100000000002</v>
       </c>
       <c r="Q19">
-        <v>97.298000000000002</v>
+        <v>-46.05</v>
       </c>
       <c r="R19">
-        <v>42120</v>
+        <v>38473</v>
       </c>
       <c r="S19">
-        <v>20600</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>3843.8150000000001</v>
+        <v>1493.58</v>
       </c>
       <c r="U19">
-        <v>624.39499999999998</v>
+        <v>92.155000000000001</v>
       </c>
       <c r="V19">
-        <v>199.23500000000001</v>
+        <v>45.843000000000004</v>
       </c>
       <c r="W19">
-        <v>-65.914000000000001</v>
+        <v>-17.963999999999999</v>
       </c>
       <c r="X19">
-        <v>-65.876999999999995</v>
+        <v>68.647999999999996</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-9.5530000000000008</v>
+        <v>6.2839999999999998</v>
       </c>
       <c r="AA19">
-        <v>180.20099999999999</v>
+        <v>55.978000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42211</v>
+        <v>38564</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>146.93799999999999</v>
+        <v>51.762</v>
       </c>
       <c r="D20">
-        <v>2188.587</v>
+        <v>1355.021</v>
       </c>
       <c r="E20">
-        <v>549.05600000000004</v>
+        <v>268.084</v>
       </c>
       <c r="F20">
-        <v>409.39</v>
+        <v>301.27300000000002</v>
       </c>
       <c r="G20">
-        <v>2003.7760000000001</v>
+        <v>958.99699999999996</v>
       </c>
       <c r="H20">
-        <v>6091.0810000000001</v>
+        <v>2734.7750000000001</v>
       </c>
       <c r="I20">
-        <v>393.79500000000002</v>
+        <v>214.68299999999999</v>
       </c>
       <c r="J20">
-        <v>250</v>
+        <v>361.16</v>
       </c>
       <c r="K20">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1245.107</v>
+        <v>545.43100000000004</v>
       </c>
       <c r="O20">
-        <v>2155.069</v>
+        <v>1218.567</v>
       </c>
       <c r="P20">
-        <v>600</v>
+        <v>432.23500000000001</v>
       </c>
       <c r="Q20">
-        <v>-275.226</v>
+        <v>42.738</v>
       </c>
       <c r="R20">
-        <v>42211</v>
+        <v>38564</v>
       </c>
       <c r="S20">
-        <v>20600</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>3936.0120000000002</v>
+        <v>1516.2080000000001</v>
       </c>
       <c r="U20">
-        <v>349.16899999999998</v>
+        <v>134.893</v>
       </c>
       <c r="V20">
-        <v>244.50800000000001</v>
+        <v>146.66499999999999</v>
       </c>
       <c r="W20">
-        <v>-66.046000000000006</v>
+        <v>-17.989000000000001</v>
       </c>
       <c r="X20">
-        <v>289.17099999999999</v>
+        <v>-68.295000000000002</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-1.9550000000000001</v>
+        <v>1.49</v>
       </c>
       <c r="AA20">
-        <v>146.93799999999999</v>
+        <v>51.762</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42302</v>
+        <v>38655</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>187.23099999999999</v>
+        <v>82.23</v>
       </c>
       <c r="D21">
-        <v>2400.8580000000002</v>
+        <v>1477.9079999999999</v>
       </c>
       <c r="E21">
-        <v>605.68899999999996</v>
+        <v>301.00099999999998</v>
       </c>
       <c r="F21">
-        <v>495.03</v>
+        <v>368.161</v>
       </c>
       <c r="G21">
-        <v>2063.0320000000002</v>
+        <v>1065.2380000000001</v>
       </c>
       <c r="H21">
-        <v>6139.8310000000001</v>
+        <v>2846.56</v>
       </c>
       <c r="I21">
-        <v>495.31700000000001</v>
+        <v>255.14400000000001</v>
       </c>
       <c r="J21">
-        <v>250</v>
+        <v>350.43</v>
       </c>
       <c r="K21">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,164 +2469,164 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1214.0250000000001</v>
+        <v>583.17200000000003</v>
       </c>
       <c r="O21">
-        <v>2138.4380000000001</v>
+        <v>1247.83</v>
       </c>
       <c r="P21">
-        <v>435</v>
+        <v>361.505</v>
       </c>
       <c r="Q21">
-        <v>-1.93</v>
+        <v>-3.847</v>
       </c>
       <c r="R21">
-        <v>42302</v>
+        <v>38655</v>
       </c>
       <c r="S21">
-        <v>20700</v>
+        <v>17600</v>
       </c>
       <c r="T21">
-        <v>4001.393</v>
+        <v>1598.73</v>
       </c>
       <c r="U21">
-        <v>347.23899999999998</v>
+        <v>131.04599999999999</v>
       </c>
       <c r="V21">
-        <v>301.74700000000001</v>
+        <v>177.73500000000001</v>
       </c>
       <c r="W21">
-        <v>-66.072999999999993</v>
+        <v>-17.902000000000001</v>
       </c>
       <c r="X21">
-        <v>-244.559</v>
+        <v>-86.394999999999996</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-8.2219999999999995</v>
+        <v>-40.972000000000001</v>
       </c>
       <c r="AA21">
-        <v>187.23099999999999</v>
+        <v>82.23</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42393</v>
+        <v>38746</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>235.06100000000001</v>
+        <v>69.275999999999996</v>
       </c>
       <c r="D22">
-        <v>2292.672</v>
+        <v>1415.933</v>
       </c>
       <c r="E22">
-        <v>554.73800000000006</v>
+        <v>273.78699999999998</v>
       </c>
       <c r="F22">
-        <v>558.01099999999997</v>
+        <v>352.995</v>
       </c>
       <c r="G22">
-        <v>1946.0830000000001</v>
+        <v>1045.0609999999999</v>
       </c>
       <c r="H22">
-        <v>6040.8890000000001</v>
+        <v>2836.77</v>
       </c>
       <c r="I22">
-        <v>411.03100000000001</v>
+        <v>241.75200000000001</v>
       </c>
       <c r="J22">
-        <v>250</v>
+        <v>350.40300000000002</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>-185</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="N22">
-        <v>1020.098</v>
+        <v>516.54899999999998</v>
       </c>
       <c r="O22">
-        <v>1877.376</v>
+        <v>1182.269</v>
       </c>
       <c r="P22">
-        <v>250</v>
+        <v>361.48899999999998</v>
       </c>
       <c r="Q22">
-        <v>27.975999999999999</v>
+        <v>-19.373000000000001</v>
       </c>
       <c r="R22">
-        <v>42393</v>
+        <v>38746</v>
       </c>
       <c r="S22">
-        <v>21000</v>
+        <v>17600</v>
       </c>
       <c r="T22">
-        <v>4163.5129999999999</v>
+        <v>1654.501</v>
       </c>
       <c r="U22">
-        <v>375.21499999999997</v>
+        <v>111.673</v>
       </c>
       <c r="V22">
-        <v>278.69099999999997</v>
+        <v>5.0309999999999997</v>
       </c>
       <c r="W22">
-        <v>-66.137</v>
+        <v>-17.914000000000001</v>
       </c>
       <c r="X22">
-        <v>-227.47399999999999</v>
+        <v>-23.042999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>11.087999999999999</v>
+        <v>21.34</v>
       </c>
       <c r="AA22">
-        <v>235.06100000000001</v>
+        <v>69.275999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42484</v>
+        <v>38837</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>215.39699999999999</v>
+        <v>67.308000000000007</v>
       </c>
       <c r="D23">
-        <v>2300.2350000000001</v>
+        <v>1365.345</v>
       </c>
       <c r="E23">
-        <v>548.49699999999996</v>
+        <v>275.63400000000001</v>
       </c>
       <c r="F23">
-        <v>526.35900000000004</v>
+        <v>331.47899999999998</v>
       </c>
       <c r="G23">
-        <v>1975.0820000000001</v>
+        <v>1063.3579999999999</v>
       </c>
       <c r="H23">
-        <v>6110.3450000000003</v>
+        <v>2931.6190000000001</v>
       </c>
       <c r="I23">
-        <v>389.41800000000001</v>
+        <v>220.947</v>
       </c>
       <c r="J23">
-        <v>250</v>
+        <v>350.09100000000001</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>937.38400000000001</v>
+        <v>563.84799999999996</v>
       </c>
       <c r="O23">
-        <v>1800.7059999999999</v>
+        <v>1229.145</v>
       </c>
       <c r="P23">
-        <v>250</v>
+        <v>396.16800000000001</v>
       </c>
       <c r="Q23">
-        <v>4.6660000000000004</v>
+        <v>8.968</v>
       </c>
       <c r="R23">
-        <v>42484</v>
+        <v>38837</v>
       </c>
       <c r="S23">
-        <v>21100</v>
+        <v>17600</v>
       </c>
       <c r="T23">
-        <v>4309.6390000000001</v>
+        <v>1702.4739999999999</v>
       </c>
       <c r="U23">
-        <v>379.88099999999997</v>
+        <v>120.64100000000001</v>
       </c>
       <c r="V23">
-        <v>130.44399999999999</v>
+        <v>94.763999999999996</v>
       </c>
       <c r="W23">
-        <v>-76.741</v>
+        <v>-19.300999999999998</v>
       </c>
       <c r="X23">
-        <v>-61.936</v>
+        <v>12.138</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1.0900000000000001</v>
+        <v>15.587</v>
       </c>
       <c r="AA23">
-        <v>215.39699999999999</v>
+        <v>67.308000000000007</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42575</v>
+        <v>38928</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>195.654</v>
+        <v>59.551000000000002</v>
       </c>
       <c r="D24">
-        <v>2302.3760000000002</v>
+        <v>1406.894</v>
       </c>
       <c r="E24">
-        <v>564.92200000000003</v>
+        <v>291.06599999999997</v>
       </c>
       <c r="F24">
-        <v>475.28500000000003</v>
+        <v>315.93599999999998</v>
       </c>
       <c r="G24">
-        <v>2010.105</v>
+        <v>1082.787</v>
       </c>
       <c r="H24">
-        <v>6388.2969999999996</v>
+        <v>2979.181</v>
       </c>
       <c r="I24">
-        <v>414.69099999999997</v>
+        <v>232.44399999999999</v>
       </c>
       <c r="J24">
-        <v>250</v>
+        <v>350.07299999999998</v>
       </c>
       <c r="K24">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1128.7270000000001</v>
+        <v>572.57500000000005</v>
       </c>
       <c r="O24">
-        <v>1994.35</v>
+        <v>1235.7080000000001</v>
       </c>
       <c r="P24">
-        <v>395</v>
+        <v>401.15199999999999</v>
       </c>
       <c r="Q24">
-        <v>-0.28399999999999997</v>
+        <v>11.548</v>
       </c>
       <c r="R24">
-        <v>42575</v>
+        <v>38928</v>
       </c>
       <c r="S24">
-        <v>20800</v>
+        <v>17600</v>
       </c>
       <c r="T24">
-        <v>4393.9470000000001</v>
+        <v>1743.473</v>
       </c>
       <c r="U24">
-        <v>379.59699999999998</v>
+        <v>132.18899999999999</v>
       </c>
       <c r="V24">
-        <v>212.55099999999999</v>
+        <v>68.584999999999994</v>
       </c>
       <c r="W24">
-        <v>-76.866</v>
+        <v>-19.3</v>
       </c>
       <c r="X24">
-        <v>33.113</v>
+        <v>-11.098000000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-5.3129999999999997</v>
+        <v>-4.1840000000000002</v>
       </c>
       <c r="AA24">
-        <v>195.654</v>
+        <v>59.551000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42673</v>
+        <v>39019</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>243.94</v>
+        <v>90.004000000000005</v>
       </c>
       <c r="D25">
-        <v>2627.9409999999998</v>
+        <v>1557.309</v>
       </c>
       <c r="E25">
-        <v>591.30999999999995</v>
+        <v>341.916</v>
       </c>
       <c r="F25">
-        <v>598.52</v>
+        <v>376.56200000000001</v>
       </c>
       <c r="G25">
-        <v>2029.912</v>
+        <v>1141.671</v>
       </c>
       <c r="H25">
-        <v>6370.067</v>
+        <v>3060.306</v>
       </c>
       <c r="I25">
-        <v>481.82600000000002</v>
+        <v>271.358</v>
       </c>
       <c r="J25">
-        <v>250</v>
+        <v>350.05399999999997</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,161 +2801,161 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1053.1959999999999</v>
+        <v>585.01400000000001</v>
       </c>
       <c r="O25">
-        <v>1918.6610000000001</v>
+        <v>1257.394</v>
       </c>
       <c r="P25">
-        <v>250</v>
+        <v>350.42</v>
       </c>
       <c r="Q25">
-        <v>35.545999999999999</v>
+        <v>40.295999999999999</v>
       </c>
       <c r="R25">
-        <v>42673</v>
+        <v>39019</v>
       </c>
       <c r="S25">
-        <v>21100</v>
+        <v>18100</v>
       </c>
       <c r="T25">
-        <v>4451.4059999999999</v>
+        <v>1802.912</v>
       </c>
       <c r="U25">
-        <v>415.14299999999997</v>
+        <v>172.48500000000001</v>
       </c>
       <c r="V25">
-        <v>371.16199999999998</v>
+        <v>158.19399999999999</v>
       </c>
       <c r="W25">
-        <v>-76.748999999999995</v>
+        <v>-19.324999999999999</v>
       </c>
       <c r="X25">
-        <v>-253.34899999999999</v>
+        <v>-92.608000000000004</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>4.2130000000000001</v>
+        <v>7.6740000000000004</v>
       </c>
       <c r="AA25">
-        <v>243.94</v>
+        <v>90.004000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42764</v>
+        <v>39110</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>235.14699999999999</v>
+        <v>75.325000000000003</v>
       </c>
       <c r="D26">
-        <v>2280.2269999999999</v>
+        <v>1504.0830000000001</v>
       </c>
       <c r="E26">
-        <v>530.851</v>
+        <v>327.60599999999999</v>
       </c>
       <c r="F26">
-        <v>552.28</v>
+        <v>359.43700000000001</v>
       </c>
       <c r="G26">
-        <v>2119.5859999999998</v>
+        <v>1109.1099999999999</v>
       </c>
       <c r="H26">
-        <v>6366.3980000000001</v>
+        <v>3083.5940000000001</v>
       </c>
       <c r="I26">
-        <v>387.71100000000001</v>
+        <v>237.27199999999999</v>
       </c>
       <c r="J26">
-        <v>250</v>
+        <v>350.03500000000003</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-2.5760000000000001</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="N26">
-        <v>919.76199999999994</v>
+        <v>526.39700000000005</v>
       </c>
       <c r="O26">
-        <v>1791.1010000000001</v>
+        <v>1202.184</v>
       </c>
       <c r="P26">
-        <v>250</v>
+        <v>356.37700000000001</v>
       </c>
       <c r="Q26">
-        <v>194.678</v>
+        <v>-57.481999999999999</v>
       </c>
       <c r="R26">
-        <v>42764</v>
+        <v>39110</v>
       </c>
       <c r="S26">
-        <v>19300</v>
+        <v>18100</v>
       </c>
       <c r="T26">
-        <v>4575.2969999999996</v>
+        <v>1881.41</v>
       </c>
       <c r="U26">
-        <v>609.82100000000003</v>
+        <v>115.003</v>
       </c>
       <c r="V26">
-        <v>195.249</v>
+        <v>54.472000000000001</v>
       </c>
       <c r="W26">
-        <v>-76.629000000000005</v>
+        <v>-19.222999999999999</v>
       </c>
       <c r="X26">
-        <v>-99.819000000000003</v>
+        <v>-15.823</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>3.5960000000000001</v>
+        <v>-49.718000000000004</v>
       </c>
       <c r="AA26">
-        <v>235.14699999999999</v>
+        <v>75.325000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42855</v>
+        <v>39201</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>210.92599999999999</v>
+        <v>68.001000000000005</v>
       </c>
       <c r="D27">
-        <v>2187.3090000000002</v>
+        <v>1504.597</v>
       </c>
       <c r="E27">
-        <v>525.322</v>
+        <v>322.63400000000001</v>
       </c>
       <c r="F27">
-        <v>486.92</v>
+        <v>345.88600000000002</v>
       </c>
       <c r="G27">
-        <v>2125.7910000000002</v>
+        <v>1138.866</v>
       </c>
       <c r="H27">
-        <v>6385.7070000000003</v>
+        <v>3109.4360000000001</v>
       </c>
       <c r="I27">
-        <v>372.36099999999999</v>
+        <v>234.47499999999999</v>
       </c>
       <c r="J27">
-        <v>250</v>
+        <v>350.02</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>824.58699999999999</v>
+        <v>515.64599999999996</v>
       </c>
       <c r="O27">
-        <v>1699.279</v>
+        <v>1191.7470000000001</v>
       </c>
       <c r="P27">
-        <v>250</v>
+        <v>350.09100000000001</v>
       </c>
       <c r="Q27">
-        <v>-60.92</v>
+        <v>-21.004999999999999</v>
       </c>
       <c r="R27">
-        <v>42855</v>
+        <v>39201</v>
       </c>
       <c r="S27">
-        <v>19200</v>
+        <v>18100</v>
       </c>
       <c r="T27">
-        <v>4686.4279999999999</v>
+        <v>1917.6890000000001</v>
       </c>
       <c r="U27">
-        <v>548.90099999999995</v>
+        <v>93.998000000000005</v>
       </c>
       <c r="V27">
-        <v>85.302999999999997</v>
+        <v>34.314</v>
       </c>
       <c r="W27">
-        <v>-89.878</v>
+        <v>-20.658000000000001</v>
       </c>
       <c r="X27">
-        <v>-107.392</v>
+        <v>-35.786000000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-4.6239999999999997</v>
+        <v>14.808999999999999</v>
       </c>
       <c r="AA27">
-        <v>210.92599999999999</v>
+        <v>68.001000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42946</v>
+        <v>39292</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>182.50800000000001</v>
+        <v>57.374000000000002</v>
       </c>
       <c r="D28">
-        <v>2207.375</v>
+        <v>1520.0050000000001</v>
       </c>
       <c r="E28">
-        <v>549.01099999999997</v>
+        <v>323.52199999999999</v>
       </c>
       <c r="F28">
-        <v>452.40899999999999</v>
+        <v>323.38099999999997</v>
       </c>
       <c r="G28">
-        <v>2217.0949999999998</v>
+        <v>1157.6420000000001</v>
       </c>
       <c r="H28">
-        <v>6507.9650000000001</v>
+        <v>3124.194</v>
       </c>
       <c r="I28">
-        <v>421.17</v>
+        <v>261.8</v>
       </c>
       <c r="J28">
-        <v>250</v>
+        <v>350.01299999999998</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>877.77099999999996</v>
+        <v>528.20399999999995</v>
       </c>
       <c r="O28">
-        <v>1754.7850000000001</v>
+        <v>1200.606</v>
       </c>
       <c r="P28">
-        <v>250</v>
+        <v>360.07299999999998</v>
       </c>
       <c r="Q28">
-        <v>84.44</v>
+        <v>10.506</v>
       </c>
       <c r="R28">
-        <v>42946</v>
+        <v>39292</v>
       </c>
       <c r="S28">
-        <v>19500</v>
+        <v>18100</v>
       </c>
       <c r="T28">
-        <v>4753.18</v>
+        <v>1923.588</v>
       </c>
       <c r="U28">
-        <v>633.34100000000001</v>
+        <v>104.504</v>
       </c>
       <c r="V28">
-        <v>250.84100000000001</v>
+        <v>66.885999999999996</v>
       </c>
       <c r="W28">
-        <v>-89.834000000000003</v>
+        <v>-20.643000000000001</v>
       </c>
       <c r="X28">
-        <v>-129.28</v>
+        <v>-44.591999999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-3.823</v>
+        <v>11.083</v>
       </c>
       <c r="AA28">
-        <v>182.50800000000001</v>
+        <v>57.374000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43037</v>
+        <v>39383</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>218.154</v>
+        <v>101.19199999999999</v>
       </c>
       <c r="D29">
-        <v>2492.6080000000002</v>
+        <v>1664.347</v>
       </c>
       <c r="E29">
-        <v>618.351</v>
+        <v>366.62099999999998</v>
       </c>
       <c r="F29">
-        <v>511.55399999999997</v>
+        <v>385.82299999999998</v>
       </c>
       <c r="G29">
-        <v>2026.5229999999999</v>
+        <v>1231.7249999999999</v>
       </c>
       <c r="H29">
-        <v>6975.9080000000004</v>
+        <v>3393.65</v>
       </c>
       <c r="I29">
-        <v>552.71400000000006</v>
+        <v>290.91899999999998</v>
       </c>
       <c r="J29">
-        <v>250</v>
+        <v>350.005</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,164 +3133,164 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1058.212</v>
+        <v>664.77700000000004</v>
       </c>
       <c r="O29">
-        <v>2036.211</v>
+        <v>1508.867</v>
       </c>
       <c r="P29">
-        <v>250</v>
+        <v>420.05399999999997</v>
       </c>
       <c r="Q29">
-        <v>-189.21899999999999</v>
+        <v>45.244999999999997</v>
       </c>
       <c r="R29">
-        <v>43037</v>
+        <v>39383</v>
       </c>
       <c r="S29">
-        <v>20200</v>
+        <v>18500</v>
       </c>
       <c r="T29">
-        <v>4939.6970000000001</v>
+        <v>1884.7829999999999</v>
       </c>
       <c r="U29">
-        <v>444.12200000000001</v>
+        <v>149.749</v>
       </c>
       <c r="V29">
-        <v>502.49200000000002</v>
+        <v>176.19800000000001</v>
       </c>
       <c r="W29">
-        <v>-89.668999999999997</v>
+        <v>-20.568000000000001</v>
       </c>
       <c r="X29">
-        <v>-82.28</v>
+        <v>2.3929999999999998</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>9.9459999999999997</v>
+        <v>1.5049999999999999</v>
       </c>
       <c r="AA29">
-        <v>218.154</v>
+        <v>101.19199999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43128</v>
+        <v>39474</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>303.10700000000003</v>
+        <v>88.180999999999997</v>
       </c>
       <c r="D30">
-        <v>2331.2930000000001</v>
+        <v>1621.165</v>
       </c>
       <c r="E30">
-        <v>569.09900000000005</v>
+        <v>345.483</v>
       </c>
       <c r="F30">
-        <v>498.29599999999999</v>
+        <v>292.69099999999997</v>
       </c>
       <c r="G30">
-        <v>1948.269</v>
+        <v>1279.357</v>
       </c>
       <c r="H30">
-        <v>7858.848</v>
+        <v>3431.2579999999998</v>
       </c>
       <c r="I30">
-        <v>532.84699999999998</v>
+        <v>265.428</v>
       </c>
       <c r="J30">
-        <v>624.726</v>
+        <v>350</v>
       </c>
       <c r="K30">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="M30">
-        <v>-0.27400000000000002</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="N30">
-        <v>1323.5139999999999</v>
+        <v>582.57799999999997</v>
       </c>
       <c r="O30">
-        <v>2703.4740000000002</v>
+        <v>1462.4069999999999</v>
       </c>
       <c r="P30">
-        <v>879.726</v>
+        <v>350</v>
       </c>
       <c r="Q30">
-        <v>-58.347000000000001</v>
+        <v>-5.5149999999999997</v>
       </c>
       <c r="R30">
-        <v>43128</v>
+        <v>39474</v>
       </c>
       <c r="S30">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="T30">
-        <v>5155.3739999999998</v>
+        <v>1968.8510000000001</v>
       </c>
       <c r="U30">
-        <v>385.77499999999998</v>
+        <v>144.23400000000001</v>
       </c>
       <c r="V30">
-        <v>304.17700000000002</v>
+        <v>156.92500000000001</v>
       </c>
       <c r="W30">
-        <v>-89.813999999999993</v>
+        <v>-20.346</v>
       </c>
       <c r="X30">
-        <v>538.16800000000001</v>
+        <v>-90.350999999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>2.718</v>
+        <v>-39.878999999999998</v>
       </c>
       <c r="AA30">
-        <v>303.10700000000003</v>
+        <v>88.180999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43219</v>
+        <v>39565</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>237.38399999999999</v>
+        <v>77.561000000000007</v>
       </c>
       <c r="D31">
-        <v>2330.5680000000002</v>
+        <v>1594.0840000000001</v>
       </c>
       <c r="E31">
-        <v>551.39200000000005</v>
+        <v>351.56400000000002</v>
       </c>
       <c r="F31">
-        <v>492.803</v>
+        <v>263.952</v>
       </c>
       <c r="G31">
-        <v>1850.78</v>
+        <v>1300.9680000000001</v>
       </c>
       <c r="H31">
-        <v>7829.7489999999998</v>
+        <v>3471.1480000000001</v>
       </c>
       <c r="I31">
-        <v>465.572</v>
+        <v>252.25</v>
       </c>
       <c r="J31">
-        <v>624.76300000000003</v>
+        <v>350</v>
       </c>
       <c r="K31">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1148.461</v>
+        <v>553.11500000000001</v>
       </c>
       <c r="O31">
-        <v>2538.116</v>
+        <v>1442.3620000000001</v>
       </c>
       <c r="P31">
-        <v>809.76300000000003</v>
+        <v>375</v>
       </c>
       <c r="Q31">
-        <v>-124.20399999999999</v>
+        <v>-37.078000000000003</v>
       </c>
       <c r="R31">
-        <v>43219</v>
+        <v>39565</v>
       </c>
       <c r="S31">
-        <v>20600</v>
+        <v>18500</v>
       </c>
       <c r="T31">
-        <v>5291.6329999999998</v>
+        <v>2028.7860000000001</v>
       </c>
       <c r="U31">
-        <v>261.57100000000003</v>
+        <v>107.15600000000001</v>
       </c>
       <c r="V31">
-        <v>139.16399999999999</v>
+        <v>-37.15</v>
       </c>
       <c r="W31">
-        <v>-99.325000000000003</v>
+        <v>-25.123000000000001</v>
       </c>
       <c r="X31">
-        <v>-182.30699999999999</v>
+        <v>-0.56100000000000005</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0.188</v>
+        <v>38.68</v>
       </c>
       <c r="AA31">
-        <v>237.38399999999999</v>
+        <v>77.561000000000007</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43310</v>
+        <v>39656</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>210.24299999999999</v>
+        <v>51.947000000000003</v>
       </c>
       <c r="D32">
-        <v>2359.1419999999998</v>
+        <v>1678.1420000000001</v>
       </c>
       <c r="E32">
-        <v>559.18100000000004</v>
+        <v>377.92899999999997</v>
       </c>
       <c r="F32">
-        <v>455.04599999999999</v>
+        <v>229.04599999999999</v>
       </c>
       <c r="G32">
-        <v>1854.31</v>
+        <v>1381.21</v>
       </c>
       <c r="H32">
-        <v>7895.3729999999996</v>
+        <v>3558.1210000000001</v>
       </c>
       <c r="I32">
-        <v>488.97800000000001</v>
+        <v>297.62799999999999</v>
       </c>
       <c r="J32">
-        <v>624.80100000000004</v>
+        <v>350</v>
       </c>
       <c r="K32">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1096.8309999999999</v>
+        <v>637.20100000000002</v>
       </c>
       <c r="O32">
-        <v>2499.605</v>
+        <v>1535.2560000000001</v>
       </c>
       <c r="P32">
-        <v>719.80100000000004</v>
+        <v>425</v>
       </c>
       <c r="Q32">
-        <v>7.4109999999999996</v>
+        <v>2.831</v>
       </c>
       <c r="R32">
-        <v>43310</v>
+        <v>39656</v>
       </c>
       <c r="S32">
-        <v>20400</v>
+        <v>19200</v>
       </c>
       <c r="T32">
-        <v>5395.768</v>
+        <v>2022.865</v>
       </c>
       <c r="U32">
-        <v>268.98200000000003</v>
+        <v>109.98699999999999</v>
       </c>
       <c r="V32">
-        <v>299.86399999999998</v>
+        <v>63.655999999999999</v>
       </c>
       <c r="W32">
-        <v>-99.376000000000005</v>
+        <v>-25.116</v>
       </c>
       <c r="X32">
-        <v>-178.584</v>
+        <v>-8.0519999999999996</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-9.7690000000000001</v>
+        <v>-2.798</v>
       </c>
       <c r="AA32">
-        <v>210.24299999999999</v>
+        <v>51.947000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43401</v>
+        <v>39747</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>261.40600000000001</v>
+        <v>67.811000000000007</v>
       </c>
       <c r="D33">
-        <v>2524.6970000000001</v>
+        <v>1861.5119999999999</v>
       </c>
       <c r="E33">
-        <v>600.43799999999999</v>
+        <v>411.01</v>
       </c>
       <c r="F33">
-        <v>533.32799999999997</v>
+        <v>276.24</v>
       </c>
       <c r="G33">
-        <v>2050.1</v>
+        <v>1438.1780000000001</v>
       </c>
       <c r="H33">
-        <v>8142.2920000000004</v>
+        <v>3616.471</v>
       </c>
       <c r="I33">
-        <v>618.83000000000004</v>
+        <v>378.52</v>
       </c>
       <c r="J33">
-        <v>624.84</v>
+        <v>350</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1138.914</v>
+        <v>781.23299999999995</v>
       </c>
       <c r="O33">
-        <v>2537.4740000000002</v>
+        <v>1608.8989999999999</v>
       </c>
       <c r="P33">
-        <v>624.84</v>
+        <v>450</v>
       </c>
       <c r="Q33">
-        <v>190.154</v>
+        <v>44.790999999999997</v>
       </c>
       <c r="R33">
-        <v>43401</v>
+        <v>39747</v>
       </c>
       <c r="S33">
-        <v>20100</v>
+        <v>19100</v>
       </c>
       <c r="T33">
-        <v>5604.8180000000002</v>
+        <v>2007.5719999999999</v>
       </c>
       <c r="U33">
-        <v>459.13600000000002</v>
+        <v>154.77799999999999</v>
       </c>
       <c r="V33">
-        <v>498.524</v>
+        <v>88.191000000000003</v>
       </c>
       <c r="W33">
-        <v>-99.591999999999999</v>
+        <v>-24.946000000000002</v>
       </c>
       <c r="X33">
-        <v>-165.63900000000001</v>
+        <v>-13.404</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-0.68300000000000005</v>
+        <v>-1.268</v>
       </c>
       <c r="AA33">
-        <v>261.40600000000001</v>
+        <v>67.811000000000007</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43492</v>
+        <v>39838</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>241.42500000000001</v>
+        <v>81.382999999999996</v>
       </c>
       <c r="D34">
-        <v>2360.355</v>
+        <v>1689.086</v>
       </c>
       <c r="E34">
-        <v>565.05999999999995</v>
+        <v>370.13</v>
       </c>
       <c r="F34">
-        <v>488.334</v>
+        <v>272.315</v>
       </c>
       <c r="G34">
-        <v>2100.6860000000001</v>
+        <v>1466.96</v>
       </c>
       <c r="H34">
-        <v>8155.3980000000001</v>
+        <v>3631.0309999999999</v>
       </c>
       <c r="I34">
-        <v>505.61700000000002</v>
+        <v>310.24200000000002</v>
       </c>
       <c r="J34">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,81 +3548,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1435.8119999999999</v>
+        <v>752.50800000000004</v>
       </c>
       <c r="O34">
-        <v>2449.6190000000001</v>
+        <v>1583.4960000000001</v>
       </c>
       <c r="P34">
-        <v>624.87800000000004</v>
+        <v>450</v>
       </c>
       <c r="Q34">
-        <v>53.552999999999997</v>
+        <v>109.959</v>
       </c>
       <c r="R34">
-        <v>43492</v>
+        <v>39838</v>
       </c>
       <c r="S34">
-        <v>18700</v>
+        <v>19100</v>
       </c>
       <c r="T34">
-        <v>5705.7790000000005</v>
+        <v>2047.5350000000001</v>
       </c>
       <c r="U34">
-        <v>512.68899999999996</v>
+        <v>264.73700000000002</v>
       </c>
       <c r="V34">
-        <v>187.42500000000001</v>
+        <v>176.38900000000001</v>
       </c>
       <c r="W34">
-        <v>-100.125</v>
+        <v>-24.876999999999999</v>
       </c>
       <c r="X34">
-        <v>-128.899</v>
+        <v>-39.420999999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>7.3019999999999996</v>
+        <v>-2.5470000000000002</v>
       </c>
       <c r="AA34">
-        <v>241.42500000000001</v>
+        <v>81.382999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43583</v>
+        <v>39929</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>282.42899999999997</v>
+        <v>80.385000000000005</v>
       </c>
       <c r="D35">
-        <v>2344.7440000000001</v>
+        <v>1595.0429999999999</v>
       </c>
       <c r="E35">
-        <v>537.447</v>
+        <v>344.92500000000001</v>
       </c>
       <c r="F35">
-        <v>469.149</v>
+        <v>262.03800000000001</v>
       </c>
       <c r="G35">
-        <v>2250.6669999999999</v>
+        <v>1486.296</v>
       </c>
       <c r="H35">
-        <v>7935.7449999999999</v>
+        <v>3633.768</v>
       </c>
       <c r="I35">
-        <v>523.673</v>
+        <v>276.74400000000003</v>
       </c>
       <c r="J35">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3631,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1051.6759999999999</v>
+        <v>695.66</v>
       </c>
       <c r="O35">
-        <v>2033.961</v>
+        <v>1528.252</v>
       </c>
       <c r="P35">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="Q35">
-        <v>126.63800000000001</v>
+        <v>47.594000000000001</v>
       </c>
       <c r="R35">
-        <v>43583</v>
+        <v>39929</v>
       </c>
       <c r="S35">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="T35">
-        <v>5901.7839999999997</v>
+        <v>2105.5160000000001</v>
       </c>
       <c r="U35">
-        <v>639.327</v>
+        <v>312.33100000000002</v>
       </c>
       <c r="V35">
-        <v>178.16800000000001</v>
+        <v>87.561999999999998</v>
       </c>
       <c r="W35">
-        <v>-112.16200000000001</v>
+        <v>-25.498999999999999</v>
       </c>
       <c r="X35">
-        <v>-481.57299999999998</v>
+        <v>-24.911000000000001</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>-14.076000000000001</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="AA35">
-        <v>282.42899999999997</v>
+        <v>80.385000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43674</v>
+        <v>40020</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>199.44900000000001</v>
+        <v>77.168999999999997</v>
       </c>
       <c r="D36">
-        <v>2290.7049999999999</v>
+        <v>1574.44</v>
       </c>
       <c r="E36">
-        <v>528.58299999999997</v>
+        <v>355.40800000000002</v>
       </c>
       <c r="F36">
-        <v>433.44200000000001</v>
+        <v>260.32400000000001</v>
       </c>
       <c r="G36">
-        <v>2245.9679999999998</v>
+        <v>1480.451</v>
       </c>
       <c r="H36">
-        <v>7954.576</v>
+        <v>3676.73</v>
       </c>
       <c r="I36">
-        <v>513.37199999999996</v>
+        <v>297.334</v>
       </c>
       <c r="J36">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1073.087</v>
+        <v>679.83500000000004</v>
       </c>
       <c r="O36">
-        <v>2063.241</v>
+        <v>1510.327</v>
       </c>
       <c r="P36">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="Q36">
-        <v>-79.128</v>
+        <v>-17.231000000000002</v>
       </c>
       <c r="R36">
-        <v>43674</v>
+        <v>40020</v>
       </c>
       <c r="S36">
         <v>18700</v>
       </c>
       <c r="T36">
-        <v>5891.335</v>
+        <v>2166.4029999999998</v>
       </c>
       <c r="U36">
-        <v>560.19899999999996</v>
+        <v>295.10000000000002</v>
       </c>
       <c r="V36">
-        <v>207.31899999999999</v>
+        <v>68.171999999999997</v>
       </c>
       <c r="W36">
-        <v>-112.684</v>
+        <v>-25.504000000000001</v>
       </c>
       <c r="X36">
-        <v>-215.47800000000001</v>
+        <v>-67.228999999999999</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-10.651999999999999</v>
+        <v>5.8639999999999999</v>
       </c>
       <c r="AA36">
-        <v>199.44900000000001</v>
+        <v>77.168999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43765</v>
+        <v>40111</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>255.50299999999999</v>
+        <v>103.876</v>
       </c>
       <c r="D37">
-        <v>2501.5129999999999</v>
+        <v>1675.1020000000001</v>
       </c>
       <c r="E37">
-        <v>574.39599999999996</v>
+        <v>372.29199999999997</v>
       </c>
       <c r="F37">
-        <v>493.72300000000001</v>
+        <v>304.19400000000002</v>
       </c>
       <c r="G37">
-        <v>2361.413</v>
+        <v>1574.7329999999999</v>
       </c>
       <c r="H37">
-        <v>8109.0039999999999</v>
+        <v>3692.0549999999998</v>
       </c>
       <c r="I37">
-        <v>590.03300000000002</v>
+        <v>313.25799999999998</v>
       </c>
       <c r="J37">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1105.049</v>
+        <v>685.029</v>
       </c>
       <c r="O37">
-        <v>2183.4690000000001</v>
+        <v>1567.7339999999999</v>
       </c>
       <c r="P37">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q37">
-        <v>112.702</v>
+        <v>90.152000000000001</v>
       </c>
       <c r="R37">
-        <v>43765</v>
+        <v>40111</v>
       </c>
       <c r="S37">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="T37">
-        <v>5925.5349999999999</v>
+        <v>2124.3209999999999</v>
       </c>
       <c r="U37">
-        <v>672.90099999999995</v>
+        <v>385.25200000000001</v>
       </c>
       <c r="V37">
-        <v>350.084</v>
+        <v>226.64500000000001</v>
       </c>
       <c r="W37">
-        <v>-112.08199999999999</v>
+        <v>-25.495999999999999</v>
       </c>
       <c r="X37">
-        <v>-100.294</v>
+        <v>-111.505</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>-3.5489999999999999</v>
+        <v>-0.751</v>
       </c>
       <c r="AA37">
-        <v>255.50299999999999</v>
+        <v>103.876</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43856</v>
+        <v>40202</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>242.87200000000001</v>
+        <v>111.20699999999999</v>
       </c>
       <c r="D38">
-        <v>2384.4340000000002</v>
+        <v>1727.4469999999999</v>
       </c>
       <c r="E38">
-        <v>562.48299999999995</v>
+        <v>348.69499999999999</v>
       </c>
       <c r="F38">
-        <v>468.42</v>
+        <v>318.387</v>
       </c>
       <c r="G38">
-        <v>2394.9670000000001</v>
+        <v>1620.5889999999999</v>
       </c>
       <c r="H38">
-        <v>8290.1090000000004</v>
+        <v>3730.692</v>
       </c>
       <c r="I38">
-        <v>490.04199999999997</v>
+        <v>289.04500000000002</v>
       </c>
       <c r="J38">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3757,81 +3877,81 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-2.0190000000000001</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>1023.085</v>
+        <v>655.45399999999995</v>
       </c>
       <c r="O38">
-        <v>2194.0639999999999</v>
+        <v>1517.9770000000001</v>
       </c>
       <c r="P38">
-        <v>379.52</v>
+        <v>350</v>
       </c>
       <c r="Q38">
-        <v>51.518000000000001</v>
+        <v>63.84</v>
       </c>
       <c r="R38">
-        <v>43856</v>
+        <v>40202</v>
       </c>
       <c r="S38">
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="T38">
-        <v>6096.0450000000001</v>
+        <v>2212.7150000000001</v>
       </c>
       <c r="U38">
-        <v>724.41899999999998</v>
+        <v>449.09199999999998</v>
       </c>
       <c r="V38">
-        <v>188.41800000000001</v>
+        <v>113.935</v>
       </c>
       <c r="W38">
-        <v>-112.249</v>
+        <v>-25.373000000000001</v>
       </c>
       <c r="X38">
-        <v>-77.915000000000006</v>
+        <v>-31.494</v>
       </c>
       <c r="Y38">
-        <v>107.533</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-4.5250000000000004</v>
+        <v>-0.56499999999999995</v>
       </c>
       <c r="AA38">
-        <v>242.87200000000001</v>
+        <v>111.20699999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43947</v>
+        <v>40293</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>227.73400000000001</v>
+        <v>77.861999999999995</v>
       </c>
       <c r="D39">
-        <v>2422.4650000000001</v>
+        <v>1699.7819999999999</v>
       </c>
       <c r="E39">
-        <v>536.00900000000001</v>
+        <v>356.524</v>
       </c>
       <c r="F39">
-        <v>477.35199999999998</v>
+        <v>290.2</v>
       </c>
       <c r="G39">
-        <v>2248.8960000000002</v>
+        <v>1636.39</v>
       </c>
       <c r="H39">
-        <v>8395.1810000000005</v>
+        <v>3784.134</v>
       </c>
       <c r="I39">
-        <v>502.13299999999998</v>
+        <v>281.05399999999997</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1324.595</v>
+        <v>651.02700000000004</v>
       </c>
       <c r="O39">
-        <v>2228.98</v>
+        <v>1518.2809999999999</v>
       </c>
       <c r="P39">
-        <v>376.262</v>
+        <v>350</v>
       </c>
       <c r="Q39">
-        <v>-118.346</v>
+        <v>-93.911000000000001</v>
       </c>
       <c r="R39">
-        <v>43947</v>
+        <v>40293</v>
       </c>
       <c r="S39">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="T39">
-        <v>6166.201</v>
+        <v>2265.8530000000001</v>
       </c>
       <c r="U39">
-        <v>606.07299999999998</v>
+        <v>355.18099999999998</v>
       </c>
       <c r="V39">
-        <v>359.87200000000001</v>
+        <v>65.403000000000006</v>
       </c>
       <c r="W39">
-        <v>-124.501</v>
+        <v>-28.027000000000001</v>
       </c>
       <c r="X39">
-        <v>-110.816</v>
+        <v>-30.870999999999999</v>
       </c>
       <c r="Y39">
-        <v>104.2</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-13.47</v>
+        <v>-80.58</v>
       </c>
       <c r="AA39">
-        <v>227.73400000000001</v>
+        <v>77.861999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44038</v>
+        <v>40384</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>203.12</v>
+        <v>85.37</v>
       </c>
       <c r="D40">
-        <v>2381.4569999999999</v>
+        <v>1730.451</v>
       </c>
       <c r="E40">
-        <v>648.99099999999999</v>
+        <v>383.892</v>
       </c>
       <c r="F40">
-        <v>422.42500000000001</v>
+        <v>284.91500000000002</v>
       </c>
       <c r="G40">
-        <v>3409.7739999999999</v>
+        <v>1710.5820000000001</v>
       </c>
       <c r="H40">
-        <v>9600.4719999999998</v>
+        <v>3845.0259999999998</v>
       </c>
       <c r="I40">
-        <v>537.53499999999997</v>
+        <v>297.11</v>
       </c>
       <c r="J40">
-        <v>992.03700000000003</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1427.0509999999999</v>
+        <v>1016.111</v>
       </c>
       <c r="O40">
-        <v>3328.7249999999999</v>
+        <v>1537.3040000000001</v>
       </c>
       <c r="P40">
-        <v>1363.3109999999999</v>
+        <v>350</v>
       </c>
       <c r="Q40">
-        <v>1123.2940000000001</v>
+        <v>21.736000000000001</v>
       </c>
       <c r="R40">
-        <v>44038</v>
+        <v>40384</v>
       </c>
       <c r="S40">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="T40">
-        <v>6271.7470000000003</v>
+        <v>2307.7220000000002</v>
       </c>
       <c r="U40">
-        <v>1729.3679999999999</v>
+        <v>376.91699999999997</v>
       </c>
       <c r="V40">
-        <v>329.79599999999999</v>
+        <v>92.284000000000006</v>
       </c>
       <c r="W40">
-        <v>-125.253</v>
+        <v>-28.029</v>
       </c>
       <c r="X40">
-        <v>872.72299999999996</v>
+        <v>-48.09</v>
       </c>
       <c r="Y40">
-        <v>99.825999999999993</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>6.9290000000000003</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="AA40">
-        <v>203.119</v>
+        <v>85.37</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44129</v>
+        <v>40482</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>234.35599999999999</v>
+        <v>121.148</v>
       </c>
       <c r="D41">
-        <v>2420.105</v>
+        <v>2063.0390000000002</v>
       </c>
       <c r="E41">
-        <v>702.41899999999998</v>
+        <v>430.93900000000002</v>
       </c>
       <c r="F41">
-        <v>537.76499999999999</v>
+        <v>354.97300000000001</v>
       </c>
       <c r="G41">
-        <v>3579.0630000000001</v>
+        <v>1858.1659999999999</v>
       </c>
       <c r="H41">
-        <v>9908.2819999999992</v>
+        <v>4053.9180000000001</v>
       </c>
       <c r="I41">
-        <v>644.60900000000004</v>
+        <v>361.28699999999998</v>
       </c>
       <c r="J41">
-        <v>992.21400000000006</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1503.9649999999999</v>
+        <v>1101.213</v>
       </c>
       <c r="O41">
-        <v>3477.9560000000001</v>
+        <v>1647.279</v>
       </c>
       <c r="P41">
-        <v>1358.778</v>
+        <v>350</v>
       </c>
       <c r="Q41">
-        <v>-15.058999999999999</v>
+        <v>90.927999999999997</v>
       </c>
       <c r="R41">
-        <v>44129</v>
+        <v>40482</v>
       </c>
       <c r="S41">
-        <v>19100</v>
+        <v>19300</v>
       </c>
       <c r="T41">
-        <v>6430.326</v>
+        <v>2406.6390000000001</v>
       </c>
       <c r="U41">
-        <v>1714.309</v>
+        <v>467.84500000000003</v>
       </c>
       <c r="V41">
-        <v>249.93799999999999</v>
+        <v>213.91</v>
       </c>
       <c r="W41">
-        <v>-125.373</v>
+        <v>-27.945</v>
       </c>
       <c r="X41">
-        <v>-117.82</v>
+        <v>-34.008000000000003</v>
       </c>
       <c r="Y41">
-        <v>95.847999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-12.647</v>
+        <v>-64.494</v>
       </c>
       <c r="AA41">
-        <v>234.35599999999999</v>
+        <v>121.148</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44220</v>
+        <v>40573</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>148.82599999999999</v>
+      </c>
+      <c r="D42">
+        <v>1921.558</v>
+      </c>
+      <c r="E42">
+        <v>406.67700000000002</v>
+      </c>
+      <c r="F42">
+        <v>374.005</v>
+      </c>
+      <c r="G42">
+        <v>1949.23</v>
+      </c>
+      <c r="H42">
+        <v>4122.9480000000003</v>
+      </c>
+      <c r="I42">
+        <v>267.81400000000002</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1020.203</v>
+      </c>
+      <c r="O42">
+        <v>1570.9639999999999</v>
+      </c>
+      <c r="P42">
+        <v>350</v>
+      </c>
+      <c r="Q42">
+        <v>130.96799999999999</v>
+      </c>
+      <c r="R42">
+        <v>40573</v>
+      </c>
+      <c r="S42">
+        <v>19300</v>
+      </c>
+      <c r="T42">
+        <v>2551.9839999999999</v>
+      </c>
+      <c r="U42">
+        <v>598.81299999999999</v>
+      </c>
+      <c r="V42">
+        <v>165.33199999999999</v>
+      </c>
+      <c r="W42">
+        <v>-27.904</v>
+      </c>
+      <c r="X42">
+        <v>-16.873000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>4.1429999999999998</v>
+      </c>
+      <c r="AA42">
+        <v>148.82599999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40664</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>109.57899999999999</v>
+      </c>
+      <c r="D43">
+        <v>1959.0409999999999</v>
+      </c>
+      <c r="E43">
+        <v>405.79199999999997</v>
+      </c>
+      <c r="F43">
+        <v>326.22699999999998</v>
+      </c>
+      <c r="G43">
+        <v>2287.2040000000002</v>
+      </c>
+      <c r="H43">
+        <v>4451.4170000000004</v>
+      </c>
+      <c r="I43">
+        <v>277.11599999999999</v>
+      </c>
+      <c r="J43">
+        <v>250</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1005.936</v>
+      </c>
+      <c r="O43">
+        <v>1808.1690000000001</v>
+      </c>
+      <c r="P43">
+        <v>600</v>
+      </c>
+      <c r="Q43">
+        <v>314.89100000000002</v>
+      </c>
+      <c r="R43">
+        <v>40664</v>
+      </c>
+      <c r="S43">
+        <v>19200</v>
+      </c>
+      <c r="T43">
+        <v>2643.248</v>
+      </c>
+      <c r="U43">
+        <v>913.70399999999995</v>
+      </c>
+      <c r="V43">
+        <v>110.587</v>
+      </c>
+      <c r="W43">
+        <v>-34.021000000000001</v>
+      </c>
+      <c r="X43">
+        <v>217.75800000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>4.3220000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>109.57899999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40755</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>98.480999999999995</v>
+      </c>
+      <c r="D44">
+        <v>1910.5920000000001</v>
+      </c>
+      <c r="E44">
+        <v>427.92700000000002</v>
+      </c>
+      <c r="F44">
+        <v>297.85500000000002</v>
+      </c>
+      <c r="G44">
+        <v>1977.1210000000001</v>
+      </c>
+      <c r="H44">
+        <v>4149.5290000000005</v>
+      </c>
+      <c r="I44">
+        <v>301.57799999999997</v>
+      </c>
+      <c r="J44">
+        <v>250</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>700.96299999999997</v>
+      </c>
+      <c r="O44">
+        <v>1482.914</v>
+      </c>
+      <c r="P44">
+        <v>250</v>
+      </c>
+      <c r="Q44">
+        <v>-416.34</v>
+      </c>
+      <c r="R44">
+        <v>40755</v>
+      </c>
+      <c r="S44">
+        <v>19400</v>
+      </c>
+      <c r="T44">
+        <v>2666.6149999999998</v>
+      </c>
+      <c r="U44">
+        <v>497.36399999999998</v>
+      </c>
+      <c r="V44">
+        <v>43.506</v>
+      </c>
+      <c r="W44">
+        <v>-34.066000000000003</v>
+      </c>
+      <c r="X44">
+        <v>-419.97699999999998</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-21.454999999999998</v>
+      </c>
+      <c r="AA44">
+        <v>98.480999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40846</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>117.309</v>
+      </c>
+      <c r="D45">
+        <v>2103.8980000000001</v>
+      </c>
+      <c r="E45">
+        <v>461.11</v>
+      </c>
+      <c r="F45">
+        <v>336.02600000000001</v>
+      </c>
+      <c r="G45">
+        <v>1998.231</v>
+      </c>
+      <c r="H45">
+        <v>4244.3909999999996</v>
+      </c>
+      <c r="I45">
+        <v>390.17099999999999</v>
+      </c>
+      <c r="J45">
+        <v>250</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>778.18600000000004</v>
+      </c>
+      <c r="O45">
+        <v>1584.575</v>
+      </c>
+      <c r="P45">
+        <v>250</v>
+      </c>
+      <c r="Q45">
+        <v>-34.234000000000002</v>
+      </c>
+      <c r="R45">
+        <v>40846</v>
+      </c>
+      <c r="S45">
+        <v>19500</v>
+      </c>
+      <c r="T45">
+        <v>2659.8159999999998</v>
+      </c>
+      <c r="U45">
+        <v>463.13</v>
+      </c>
+      <c r="V45">
+        <v>171.054</v>
+      </c>
+      <c r="W45">
+        <v>-33.984000000000002</v>
+      </c>
+      <c r="X45">
+        <v>-106.41</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-58.262999999999998</v>
+      </c>
+      <c r="AA45">
+        <v>117.309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40937</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>128.39500000000001</v>
+      </c>
+      <c r="D46">
+        <v>2039.4390000000001</v>
+      </c>
+      <c r="E46">
+        <v>422.505</v>
+      </c>
+      <c r="F46">
+        <v>337.40899999999999</v>
+      </c>
+      <c r="G46">
+        <v>2021.731</v>
+      </c>
+      <c r="H46">
+        <v>4270.2939999999999</v>
+      </c>
+      <c r="I46">
+        <v>308.721</v>
+      </c>
+      <c r="J46">
+        <v>250</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>724.58600000000001</v>
+      </c>
+      <c r="O46">
+        <v>1531.1880000000001</v>
+      </c>
+      <c r="P46">
+        <v>250</v>
+      </c>
+      <c r="Q46">
+        <v>85.488</v>
+      </c>
+      <c r="R46">
+        <v>40937</v>
+      </c>
+      <c r="S46">
+        <v>19600</v>
+      </c>
+      <c r="T46">
+        <v>2739.1060000000002</v>
+      </c>
+      <c r="U46">
+        <v>548.61800000000005</v>
+      </c>
+      <c r="V46">
+        <v>152.16</v>
+      </c>
+      <c r="W46">
+        <v>-33.6</v>
+      </c>
+      <c r="X46">
+        <v>-38.902999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0.998</v>
+      </c>
+      <c r="AA46">
+        <v>128.39500000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41028</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>127.887</v>
+      </c>
+      <c r="D47">
+        <v>2012.8589999999999</v>
+      </c>
+      <c r="E47">
+        <v>439.34800000000001</v>
+      </c>
+      <c r="F47">
+        <v>335.60700000000003</v>
+      </c>
+      <c r="G47">
+        <v>2060.0749999999998</v>
+      </c>
+      <c r="H47">
+        <v>4314.6629999999996</v>
+      </c>
+      <c r="I47">
+        <v>318.43200000000002</v>
+      </c>
+      <c r="J47">
+        <v>250</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>699.96799999999996</v>
+      </c>
+      <c r="O47">
+        <v>1508.84</v>
+      </c>
+      <c r="P47">
+        <v>250</v>
+      </c>
+      <c r="Q47">
+        <v>-23.838999999999999</v>
+      </c>
+      <c r="R47">
+        <v>41028</v>
+      </c>
+      <c r="S47">
+        <v>19600</v>
+      </c>
+      <c r="T47">
+        <v>2805.8229999999999</v>
+      </c>
+      <c r="U47">
+        <v>524.779</v>
+      </c>
+      <c r="V47">
+        <v>60.871000000000002</v>
+      </c>
+      <c r="W47">
+        <v>-39.585999999999999</v>
+      </c>
+      <c r="X47">
+        <v>-61.709000000000003</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>3.7480000000000002</v>
+      </c>
+      <c r="AA47">
+        <v>127.887</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>111.167</v>
+      </c>
+      <c r="D48">
+        <v>2008.1880000000001</v>
+      </c>
+      <c r="E48">
+        <v>474.42500000000001</v>
+      </c>
+      <c r="F48">
+        <v>307.05599999999998</v>
+      </c>
+      <c r="G48">
+        <v>2117.2579999999998</v>
+      </c>
+      <c r="H48">
+        <v>4382.6189999999997</v>
+      </c>
+      <c r="I48">
+        <v>289.21199999999999</v>
+      </c>
+      <c r="J48">
+        <v>250</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>676.71</v>
+      </c>
+      <c r="O48">
+        <v>1486.42</v>
+      </c>
+      <c r="P48">
+        <v>250</v>
+      </c>
+      <c r="Q48">
+        <v>8.4380000000000006</v>
+      </c>
+      <c r="R48">
+        <v>41119</v>
+      </c>
+      <c r="S48">
+        <v>19700</v>
+      </c>
+      <c r="T48">
+        <v>2896.1990000000001</v>
+      </c>
+      <c r="U48">
+        <v>533.21699999999998</v>
+      </c>
+      <c r="V48">
+        <v>71.022000000000006</v>
+      </c>
+      <c r="W48">
+        <v>-39.497</v>
+      </c>
+      <c r="X48">
+        <v>-41.252000000000002</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>12.914999999999999</v>
+      </c>
+      <c r="AA48">
+        <v>111.167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41210</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>132.601</v>
+      </c>
+      <c r="D49">
+        <v>2170.1840000000002</v>
+      </c>
+      <c r="E49">
+        <v>507.041</v>
+      </c>
+      <c r="F49">
+        <v>351.779</v>
+      </c>
+      <c r="G49">
+        <v>2320.6840000000002</v>
+      </c>
+      <c r="H49">
+        <v>4563.9660000000003</v>
+      </c>
+      <c r="I49">
+        <v>385.87700000000001</v>
+      </c>
+      <c r="J49">
+        <v>250</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>786.3</v>
+      </c>
+      <c r="O49">
+        <v>1739.0409999999999</v>
+      </c>
+      <c r="P49">
+        <v>250</v>
+      </c>
+      <c r="Q49">
+        <v>149.17099999999999</v>
+      </c>
+      <c r="R49">
+        <v>41210</v>
+      </c>
+      <c r="S49">
+        <v>19700</v>
+      </c>
+      <c r="T49">
+        <v>2824.9250000000002</v>
+      </c>
+      <c r="U49">
+        <v>682.38800000000003</v>
+      </c>
+      <c r="V49">
+        <v>233.72800000000001</v>
+      </c>
+      <c r="W49">
+        <v>-39.521000000000001</v>
+      </c>
+      <c r="X49">
+        <v>-50.884999999999998</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>3.4820000000000002</v>
+      </c>
+      <c r="AA49">
+        <v>132.601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41301</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>129.71600000000001</v>
+      </c>
+      <c r="D50">
+        <v>2116.241</v>
+      </c>
+      <c r="E50">
+        <v>466.536</v>
+      </c>
+      <c r="F50">
+        <v>344.19299999999998</v>
+      </c>
+      <c r="G50">
+        <v>2399.8449999999998</v>
+      </c>
+      <c r="H50">
+        <v>4622.83</v>
+      </c>
+      <c r="I50">
+        <v>324.36700000000002</v>
+      </c>
+      <c r="J50">
+        <v>250</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>737.38599999999997</v>
+      </c>
+      <c r="O50">
+        <v>1688.8779999999999</v>
+      </c>
+      <c r="P50">
+        <v>250</v>
+      </c>
+      <c r="Q50">
+        <v>205.28899999999999</v>
+      </c>
+      <c r="R50">
+        <v>41301</v>
+      </c>
+      <c r="S50">
+        <v>19600</v>
+      </c>
+      <c r="T50">
+        <v>2933.9520000000002</v>
+      </c>
+      <c r="U50">
+        <v>887.67700000000002</v>
+      </c>
+      <c r="V50">
+        <v>141.81299999999999</v>
+      </c>
+      <c r="W50">
+        <v>-39.438000000000002</v>
+      </c>
+      <c r="X50">
+        <v>-2.9550000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>85.477000000000004</v>
+      </c>
+      <c r="AA50">
+        <v>129.71600000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41392</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>125.52</v>
+      </c>
+      <c r="D51">
+        <v>2152.6860000000001</v>
+      </c>
+      <c r="E51">
+        <v>462.23899999999998</v>
+      </c>
+      <c r="F51">
+        <v>352.80099999999999</v>
+      </c>
+      <c r="G51">
+        <v>1832.34</v>
+      </c>
+      <c r="H51">
+        <v>4667.6409999999996</v>
+      </c>
+      <c r="I51">
+        <v>315.04000000000002</v>
+      </c>
+      <c r="J51">
+        <v>250</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>707.89400000000001</v>
+      </c>
+      <c r="O51">
+        <v>1649.809</v>
+      </c>
+      <c r="P51">
+        <v>250</v>
+      </c>
+      <c r="Q51">
+        <v>-624.92899999999997</v>
+      </c>
+      <c r="R51">
+        <v>41392</v>
+      </c>
+      <c r="S51">
+        <v>19700</v>
+      </c>
+      <c r="T51">
+        <v>3017.8319999999999</v>
+      </c>
+      <c r="U51">
+        <v>262.74799999999999</v>
+      </c>
+      <c r="V51">
+        <v>115.745</v>
+      </c>
+      <c r="W51">
+        <v>-44.966999999999999</v>
+      </c>
+      <c r="X51">
+        <v>-42.625</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-12.935</v>
+      </c>
+      <c r="AA51">
+        <v>125.52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41483</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>113.63500000000001</v>
+      </c>
+      <c r="D52">
+        <v>2159.5250000000001</v>
+      </c>
+      <c r="E52">
+        <v>514.39800000000002</v>
+      </c>
+      <c r="F52">
+        <v>330.30599999999998</v>
+      </c>
+      <c r="G52">
+        <v>1951.59</v>
+      </c>
+      <c r="H52">
+        <v>4761.2489999999998</v>
+      </c>
+      <c r="I52">
+        <v>369.887</v>
+      </c>
+      <c r="J52">
+        <v>250</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>789.48400000000004</v>
+      </c>
+      <c r="O52">
+        <v>1707.365</v>
+      </c>
+      <c r="P52">
+        <v>250</v>
+      </c>
+      <c r="Q52">
+        <v>66.748000000000005</v>
+      </c>
+      <c r="R52">
+        <v>41483</v>
+      </c>
+      <c r="S52">
+        <v>19800</v>
+      </c>
+      <c r="T52">
+        <v>3053.884</v>
+      </c>
+      <c r="U52">
+        <v>329.49599999999998</v>
+      </c>
+      <c r="V52">
+        <v>171.291</v>
+      </c>
+      <c r="W52">
+        <v>-45.021000000000001</v>
+      </c>
+      <c r="X52">
+        <v>-81.316000000000003</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AA52">
+        <v>113.63500000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41574</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>157.34</v>
+      </c>
+      <c r="D53">
+        <v>2323.2020000000002</v>
+      </c>
+      <c r="E53">
+        <v>551.5</v>
+      </c>
+      <c r="F53">
+        <v>385.51600000000002</v>
+      </c>
+      <c r="G53">
+        <v>2047.413</v>
+      </c>
+      <c r="H53">
+        <v>4915.88</v>
+      </c>
+      <c r="I53">
+        <v>387.28399999999999</v>
+      </c>
+      <c r="J53">
+        <v>250</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>784.00900000000001</v>
+      </c>
+      <c r="O53">
+        <v>1599.3009999999999</v>
+      </c>
+      <c r="P53">
+        <v>250</v>
+      </c>
+      <c r="Q53">
+        <v>104.518</v>
+      </c>
+      <c r="R53">
+        <v>41574</v>
+      </c>
+      <c r="S53">
+        <v>19800</v>
+      </c>
+      <c r="T53">
+        <v>3316.5790000000002</v>
+      </c>
+      <c r="U53">
+        <v>434.01400000000001</v>
+      </c>
+      <c r="V53">
+        <v>208.95599999999999</v>
+      </c>
+      <c r="W53">
+        <v>-44.893999999999998</v>
+      </c>
+      <c r="X53">
+        <v>-68.625</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-1.8089999999999999</v>
+      </c>
+      <c r="AA53">
+        <v>157.34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41665</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>153.34800000000001</v>
+      </c>
+      <c r="D54">
+        <v>2242.672</v>
+      </c>
+      <c r="E54">
+        <v>505.024</v>
+      </c>
+      <c r="F54">
+        <v>398.642</v>
+      </c>
+      <c r="G54">
+        <v>2166.8330000000001</v>
+      </c>
+      <c r="H54">
+        <v>5067.17</v>
+      </c>
+      <c r="I54">
+        <v>354.83199999999999</v>
+      </c>
+      <c r="J54">
+        <v>250</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>824.52499999999998</v>
+      </c>
+      <c r="O54">
+        <v>1642.739</v>
+      </c>
+      <c r="P54">
+        <v>250</v>
+      </c>
+      <c r="Q54">
+        <v>205.83</v>
+      </c>
+      <c r="R54">
+        <v>41665</v>
+      </c>
+      <c r="S54">
+        <v>19700</v>
+      </c>
+      <c r="T54">
+        <v>3424.431</v>
+      </c>
+      <c r="U54">
+        <v>639.84400000000005</v>
+      </c>
+      <c r="V54">
+        <v>314.29199999999997</v>
+      </c>
+      <c r="W54">
+        <v>-44.832999999999998</v>
+      </c>
+      <c r="X54">
+        <v>-37.284999999999997</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>4.0279999999999996</v>
+      </c>
+      <c r="AA54">
+        <v>153.34800000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41756</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>140.09</v>
+      </c>
+      <c r="D55">
+        <v>2244.866</v>
+      </c>
+      <c r="E55">
+        <v>515.16099999999994</v>
+      </c>
+      <c r="F55">
+        <v>378.75799999999998</v>
+      </c>
+      <c r="G55">
+        <v>2172.6120000000001</v>
+      </c>
+      <c r="H55">
+        <v>5085.8239999999996</v>
+      </c>
+      <c r="I55">
+        <v>339.35399999999998</v>
+      </c>
+      <c r="J55">
+        <v>250</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>751.99400000000003</v>
+      </c>
+      <c r="O55">
+        <v>1572.68</v>
+      </c>
+      <c r="P55">
+        <v>250</v>
+      </c>
+      <c r="Q55">
+        <v>-140.51400000000001</v>
+      </c>
+      <c r="R55">
+        <v>41756</v>
+      </c>
+      <c r="S55">
+        <v>20100</v>
+      </c>
+      <c r="T55">
+        <v>3513.1439999999998</v>
+      </c>
+      <c r="U55">
+        <v>499.33</v>
+      </c>
+      <c r="V55">
+        <v>-39.256999999999998</v>
+      </c>
+      <c r="W55">
+        <v>-52.761000000000003</v>
+      </c>
+      <c r="X55">
+        <v>-59.850999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-4.1390000000000002</v>
+      </c>
+      <c r="AA55">
+        <v>140.09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41847</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>137.97499999999999</v>
+      </c>
+      <c r="D56">
+        <v>2284.9470000000001</v>
+      </c>
+      <c r="E56">
+        <v>536.505</v>
+      </c>
+      <c r="F56">
+        <v>363.99900000000002</v>
+      </c>
+      <c r="G56">
+        <v>2245.0410000000002</v>
+      </c>
+      <c r="H56">
+        <v>5188.433</v>
+      </c>
+      <c r="I56">
+        <v>358.01600000000002</v>
+      </c>
+      <c r="J56">
+        <v>250</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>785.09900000000005</v>
+      </c>
+      <c r="O56">
+        <v>1608.8530000000001</v>
+      </c>
+      <c r="P56">
+        <v>250</v>
+      </c>
+      <c r="Q56">
+        <v>31.646999999999998</v>
+      </c>
+      <c r="R56">
+        <v>41847</v>
+      </c>
+      <c r="S56">
+        <v>20200</v>
+      </c>
+      <c r="T56">
+        <v>3579.58</v>
+      </c>
+      <c r="U56">
+        <v>530.97699999999998</v>
+      </c>
+      <c r="V56">
+        <v>119.331</v>
+      </c>
+      <c r="W56">
+        <v>-52.765999999999998</v>
+      </c>
+      <c r="X56">
+        <v>-54.981999999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>1.016</v>
+      </c>
+      <c r="AA56">
+        <v>137.97499999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41938</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>171.26400000000001</v>
+      </c>
+      <c r="D57">
+        <v>2543.7710000000002</v>
+      </c>
+      <c r="E57">
+        <v>609.52599999999995</v>
+      </c>
+      <c r="F57">
+        <v>428.084</v>
+      </c>
+      <c r="G57">
+        <v>2132.7710000000002</v>
+      </c>
+      <c r="H57">
+        <v>5455.6189999999997</v>
+      </c>
+      <c r="I57">
+        <v>484.04199999999997</v>
+      </c>
+      <c r="J57">
+        <v>250</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>954.69200000000001</v>
+      </c>
+      <c r="O57">
+        <v>1843.5630000000001</v>
+      </c>
+      <c r="P57">
+        <v>250</v>
+      </c>
+      <c r="Q57">
+        <v>-196.803</v>
+      </c>
+      <c r="R57">
+        <v>41938</v>
+      </c>
+      <c r="S57">
+        <v>20400</v>
+      </c>
+      <c r="T57">
+        <v>3612.056</v>
+      </c>
+      <c r="U57">
+        <v>334.17399999999998</v>
+      </c>
+      <c r="V57">
+        <v>352.51299999999998</v>
+      </c>
+      <c r="W57">
+        <v>-52.795999999999999</v>
+      </c>
+      <c r="X57">
+        <v>-77.251999999999995</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-2.6230000000000002</v>
+      </c>
+      <c r="AA57">
+        <v>171.26400000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42029</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>171.71799999999999</v>
+      </c>
+      <c r="D58">
+        <v>2395.0729999999999</v>
+      </c>
+      <c r="E58">
+        <v>578.23800000000006</v>
+      </c>
+      <c r="F58">
+        <v>455.13099999999997</v>
+      </c>
+      <c r="G58">
+        <v>2246.3310000000001</v>
+      </c>
+      <c r="H58">
+        <v>5559.6229999999996</v>
+      </c>
+      <c r="I58">
+        <v>407.41899999999998</v>
+      </c>
+      <c r="J58">
+        <v>250</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>937.30399999999997</v>
+      </c>
+      <c r="O58">
+        <v>1827.307</v>
+      </c>
+      <c r="P58">
+        <v>250</v>
+      </c>
+      <c r="Q58">
+        <v>192.923</v>
+      </c>
+      <c r="R58">
+        <v>42029</v>
+      </c>
+      <c r="S58">
+        <v>20600</v>
+      </c>
+      <c r="T58">
+        <v>3732.3159999999998</v>
+      </c>
+      <c r="U58">
+        <v>527.09699999999998</v>
+      </c>
+      <c r="V58">
+        <v>246.50200000000001</v>
+      </c>
+      <c r="W58">
+        <v>-52.801000000000002</v>
+      </c>
+      <c r="X58">
+        <v>-49.362000000000002</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>14.932</v>
+      </c>
+      <c r="AA58">
+        <v>171.71799999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>180.20099999999999</v>
+      </c>
+      <c r="D59">
+        <v>2279.3449999999998</v>
+      </c>
+      <c r="E59">
+        <v>578.726</v>
+      </c>
+      <c r="F59">
+        <v>459.55599999999998</v>
+      </c>
+      <c r="G59">
+        <v>2302.431</v>
+      </c>
+      <c r="H59">
+        <v>5622.9979999999996</v>
+      </c>
+      <c r="I59">
+        <v>385.85500000000002</v>
+      </c>
+      <c r="J59">
+        <v>250</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>870.18200000000002</v>
+      </c>
+      <c r="O59">
+        <v>1779.183</v>
+      </c>
+      <c r="P59">
+        <v>250</v>
+      </c>
+      <c r="Q59">
+        <v>97.298000000000002</v>
+      </c>
+      <c r="R59">
+        <v>42120</v>
+      </c>
+      <c r="S59">
+        <v>20600</v>
+      </c>
+      <c r="T59">
+        <v>3843.8150000000001</v>
+      </c>
+      <c r="U59">
+        <v>624.39499999999998</v>
+      </c>
+      <c r="V59">
+        <v>199.23500000000001</v>
+      </c>
+      <c r="W59">
+        <v>-65.914000000000001</v>
+      </c>
+      <c r="X59">
+        <v>-65.876999999999995</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-9.5530000000000008</v>
+      </c>
+      <c r="AA59">
+        <v>180.20099999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42211</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>146.93799999999999</v>
+      </c>
+      <c r="D60">
+        <v>2188.587</v>
+      </c>
+      <c r="E60">
+        <v>549.05600000000004</v>
+      </c>
+      <c r="F60">
+        <v>409.39</v>
+      </c>
+      <c r="G60">
+        <v>2003.7760000000001</v>
+      </c>
+      <c r="H60">
+        <v>6091.0810000000001</v>
+      </c>
+      <c r="I60">
+        <v>393.79500000000002</v>
+      </c>
+      <c r="J60">
+        <v>250</v>
+      </c>
+      <c r="K60">
+        <v>350</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1245.107</v>
+      </c>
+      <c r="O60">
+        <v>2155.069</v>
+      </c>
+      <c r="P60">
+        <v>600</v>
+      </c>
+      <c r="Q60">
+        <v>-275.226</v>
+      </c>
+      <c r="R60">
+        <v>42211</v>
+      </c>
+      <c r="S60">
+        <v>20600</v>
+      </c>
+      <c r="T60">
+        <v>3936.0120000000002</v>
+      </c>
+      <c r="U60">
+        <v>349.16899999999998</v>
+      </c>
+      <c r="V60">
+        <v>244.50800000000001</v>
+      </c>
+      <c r="W60">
+        <v>-66.046000000000006</v>
+      </c>
+      <c r="X60">
+        <v>289.17099999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-1.9550000000000001</v>
+      </c>
+      <c r="AA60">
+        <v>146.93799999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42302</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>187.23099999999999</v>
+      </c>
+      <c r="D61">
+        <v>2400.8580000000002</v>
+      </c>
+      <c r="E61">
+        <v>605.68899999999996</v>
+      </c>
+      <c r="F61">
+        <v>495.03</v>
+      </c>
+      <c r="G61">
+        <v>2063.0320000000002</v>
+      </c>
+      <c r="H61">
+        <v>6139.8310000000001</v>
+      </c>
+      <c r="I61">
+        <v>495.31700000000001</v>
+      </c>
+      <c r="J61">
+        <v>250</v>
+      </c>
+      <c r="K61">
+        <v>185</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1214.0250000000001</v>
+      </c>
+      <c r="O61">
+        <v>2138.4380000000001</v>
+      </c>
+      <c r="P61">
+        <v>435</v>
+      </c>
+      <c r="Q61">
+        <v>-1.93</v>
+      </c>
+      <c r="R61">
+        <v>42302</v>
+      </c>
+      <c r="S61">
+        <v>20700</v>
+      </c>
+      <c r="T61">
+        <v>4001.393</v>
+      </c>
+      <c r="U61">
+        <v>347.23899999999998</v>
+      </c>
+      <c r="V61">
+        <v>301.74700000000001</v>
+      </c>
+      <c r="W61">
+        <v>-66.072999999999993</v>
+      </c>
+      <c r="X61">
+        <v>-244.559</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-8.2219999999999995</v>
+      </c>
+      <c r="AA61">
+        <v>187.23099999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42393</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>235.06100000000001</v>
+      </c>
+      <c r="D62">
+        <v>2292.672</v>
+      </c>
+      <c r="E62">
+        <v>554.73800000000006</v>
+      </c>
+      <c r="F62">
+        <v>558.01099999999997</v>
+      </c>
+      <c r="G62">
+        <v>1946.0830000000001</v>
+      </c>
+      <c r="H62">
+        <v>6040.8890000000001</v>
+      </c>
+      <c r="I62">
+        <v>411.03100000000001</v>
+      </c>
+      <c r="J62">
+        <v>250</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>-185</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1020.098</v>
+      </c>
+      <c r="O62">
+        <v>1877.376</v>
+      </c>
+      <c r="P62">
+        <v>250</v>
+      </c>
+      <c r="Q62">
+        <v>27.975999999999999</v>
+      </c>
+      <c r="R62">
+        <v>42393</v>
+      </c>
+      <c r="S62">
+        <v>21000</v>
+      </c>
+      <c r="T62">
+        <v>4163.5129999999999</v>
+      </c>
+      <c r="U62">
+        <v>375.21499999999997</v>
+      </c>
+      <c r="V62">
+        <v>278.69099999999997</v>
+      </c>
+      <c r="W62">
+        <v>-66.137</v>
+      </c>
+      <c r="X62">
+        <v>-227.47399999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>11.087999999999999</v>
+      </c>
+      <c r="AA62">
+        <v>235.06100000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42484</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>215.39699999999999</v>
+      </c>
+      <c r="D63">
+        <v>2300.2350000000001</v>
+      </c>
+      <c r="E63">
+        <v>548.49699999999996</v>
+      </c>
+      <c r="F63">
+        <v>526.35900000000004</v>
+      </c>
+      <c r="G63">
+        <v>1975.0820000000001</v>
+      </c>
+      <c r="H63">
+        <v>6110.3450000000003</v>
+      </c>
+      <c r="I63">
+        <v>389.41800000000001</v>
+      </c>
+      <c r="J63">
+        <v>250</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>937.38400000000001</v>
+      </c>
+      <c r="O63">
+        <v>1800.7059999999999</v>
+      </c>
+      <c r="P63">
+        <v>250</v>
+      </c>
+      <c r="Q63">
+        <v>4.6660000000000004</v>
+      </c>
+      <c r="R63">
+        <v>42484</v>
+      </c>
+      <c r="S63">
+        <v>21100</v>
+      </c>
+      <c r="T63">
+        <v>4309.6390000000001</v>
+      </c>
+      <c r="U63">
+        <v>379.88099999999997</v>
+      </c>
+      <c r="V63">
+        <v>130.44399999999999</v>
+      </c>
+      <c r="W63">
+        <v>-76.741</v>
+      </c>
+      <c r="X63">
+        <v>-61.936</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AA63">
+        <v>215.39699999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42575</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>195.654</v>
+      </c>
+      <c r="D64">
+        <v>2302.3760000000002</v>
+      </c>
+      <c r="E64">
+        <v>564.92200000000003</v>
+      </c>
+      <c r="F64">
+        <v>475.28500000000003</v>
+      </c>
+      <c r="G64">
+        <v>2010.105</v>
+      </c>
+      <c r="H64">
+        <v>6388.2969999999996</v>
+      </c>
+      <c r="I64">
+        <v>414.69099999999997</v>
+      </c>
+      <c r="J64">
+        <v>250</v>
+      </c>
+      <c r="K64">
+        <v>145</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1128.7270000000001</v>
+      </c>
+      <c r="O64">
+        <v>1994.35</v>
+      </c>
+      <c r="P64">
+        <v>395</v>
+      </c>
+      <c r="Q64">
+        <v>-0.28399999999999997</v>
+      </c>
+      <c r="R64">
+        <v>42575</v>
+      </c>
+      <c r="S64">
+        <v>20800</v>
+      </c>
+      <c r="T64">
+        <v>4393.9470000000001</v>
+      </c>
+      <c r="U64">
+        <v>379.59699999999998</v>
+      </c>
+      <c r="V64">
+        <v>212.55099999999999</v>
+      </c>
+      <c r="W64">
+        <v>-76.866</v>
+      </c>
+      <c r="X64">
+        <v>33.113</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-5.3129999999999997</v>
+      </c>
+      <c r="AA64">
+        <v>195.654</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42673</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>243.94</v>
+      </c>
+      <c r="D65">
+        <v>2627.9409999999998</v>
+      </c>
+      <c r="E65">
+        <v>591.30999999999995</v>
+      </c>
+      <c r="F65">
+        <v>598.52</v>
+      </c>
+      <c r="G65">
+        <v>2029.912</v>
+      </c>
+      <c r="H65">
+        <v>6370.067</v>
+      </c>
+      <c r="I65">
+        <v>481.82600000000002</v>
+      </c>
+      <c r="J65">
+        <v>250</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1053.1959999999999</v>
+      </c>
+      <c r="O65">
+        <v>1918.6610000000001</v>
+      </c>
+      <c r="P65">
+        <v>250</v>
+      </c>
+      <c r="Q65">
+        <v>35.545999999999999</v>
+      </c>
+      <c r="R65">
+        <v>42673</v>
+      </c>
+      <c r="S65">
+        <v>21100</v>
+      </c>
+      <c r="T65">
+        <v>4451.4059999999999</v>
+      </c>
+      <c r="U65">
+        <v>415.14299999999997</v>
+      </c>
+      <c r="V65">
+        <v>371.16199999999998</v>
+      </c>
+      <c r="W65">
+        <v>-76.748999999999995</v>
+      </c>
+      <c r="X65">
+        <v>-253.34899999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>4.2130000000000001</v>
+      </c>
+      <c r="AA65">
+        <v>243.94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42764</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>235.14699999999999</v>
+      </c>
+      <c r="D66">
+        <v>2280.2269999999999</v>
+      </c>
+      <c r="E66">
+        <v>530.851</v>
+      </c>
+      <c r="F66">
+        <v>552.28</v>
+      </c>
+      <c r="G66">
+        <v>2119.5859999999998</v>
+      </c>
+      <c r="H66">
+        <v>6366.3980000000001</v>
+      </c>
+      <c r="I66">
+        <v>387.71100000000001</v>
+      </c>
+      <c r="J66">
+        <v>250</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>919.76199999999994</v>
+      </c>
+      <c r="O66">
+        <v>1791.1010000000001</v>
+      </c>
+      <c r="P66">
+        <v>250</v>
+      </c>
+      <c r="Q66">
+        <v>194.678</v>
+      </c>
+      <c r="R66">
+        <v>42764</v>
+      </c>
+      <c r="S66">
+        <v>19300</v>
+      </c>
+      <c r="T66">
+        <v>4575.2969999999996</v>
+      </c>
+      <c r="U66">
+        <v>609.82100000000003</v>
+      </c>
+      <c r="V66">
+        <v>195.249</v>
+      </c>
+      <c r="W66">
+        <v>-76.629000000000005</v>
+      </c>
+      <c r="X66">
+        <v>-99.819000000000003</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>3.5960000000000001</v>
+      </c>
+      <c r="AA66">
+        <v>235.14699999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>210.92599999999999</v>
+      </c>
+      <c r="D67">
+        <v>2187.3090000000002</v>
+      </c>
+      <c r="E67">
+        <v>525.322</v>
+      </c>
+      <c r="F67">
+        <v>486.92</v>
+      </c>
+      <c r="G67">
+        <v>2125.7910000000002</v>
+      </c>
+      <c r="H67">
+        <v>6385.7070000000003</v>
+      </c>
+      <c r="I67">
+        <v>372.36099999999999</v>
+      </c>
+      <c r="J67">
+        <v>250</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>824.58699999999999</v>
+      </c>
+      <c r="O67">
+        <v>1699.279</v>
+      </c>
+      <c r="P67">
+        <v>250</v>
+      </c>
+      <c r="Q67">
+        <v>-60.92</v>
+      </c>
+      <c r="R67">
+        <v>42855</v>
+      </c>
+      <c r="S67">
+        <v>19200</v>
+      </c>
+      <c r="T67">
+        <v>4686.4279999999999</v>
+      </c>
+      <c r="U67">
+        <v>548.90099999999995</v>
+      </c>
+      <c r="V67">
+        <v>85.302999999999997</v>
+      </c>
+      <c r="W67">
+        <v>-89.878</v>
+      </c>
+      <c r="X67">
+        <v>-107.392</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-4.6239999999999997</v>
+      </c>
+      <c r="AA67">
+        <v>210.92599999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42946</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>182.50800000000001</v>
+      </c>
+      <c r="D68">
+        <v>2207.375</v>
+      </c>
+      <c r="E68">
+        <v>549.01099999999997</v>
+      </c>
+      <c r="F68">
+        <v>452.40899999999999</v>
+      </c>
+      <c r="G68">
+        <v>2217.0949999999998</v>
+      </c>
+      <c r="H68">
+        <v>6507.9650000000001</v>
+      </c>
+      <c r="I68">
+        <v>421.17</v>
+      </c>
+      <c r="J68">
+        <v>250</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>877.77099999999996</v>
+      </c>
+      <c r="O68">
+        <v>1754.7850000000001</v>
+      </c>
+      <c r="P68">
+        <v>250</v>
+      </c>
+      <c r="Q68">
+        <v>84.44</v>
+      </c>
+      <c r="R68">
+        <v>42946</v>
+      </c>
+      <c r="S68">
+        <v>19500</v>
+      </c>
+      <c r="T68">
+        <v>4753.18</v>
+      </c>
+      <c r="U68">
+        <v>633.34100000000001</v>
+      </c>
+      <c r="V68">
+        <v>250.84100000000001</v>
+      </c>
+      <c r="W68">
+        <v>-89.834000000000003</v>
+      </c>
+      <c r="X68">
+        <v>-129.28</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-3.823</v>
+      </c>
+      <c r="AA68">
+        <v>182.50800000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43037</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>218.154</v>
+      </c>
+      <c r="D69">
+        <v>2492.6080000000002</v>
+      </c>
+      <c r="E69">
+        <v>618.351</v>
+      </c>
+      <c r="F69">
+        <v>511.55399999999997</v>
+      </c>
+      <c r="G69">
+        <v>2026.5229999999999</v>
+      </c>
+      <c r="H69">
+        <v>6975.9080000000004</v>
+      </c>
+      <c r="I69">
+        <v>552.71400000000006</v>
+      </c>
+      <c r="J69">
+        <v>250</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1058.212</v>
+      </c>
+      <c r="O69">
+        <v>2036.211</v>
+      </c>
+      <c r="P69">
+        <v>250</v>
+      </c>
+      <c r="Q69">
+        <v>-189.21899999999999</v>
+      </c>
+      <c r="R69">
+        <v>43037</v>
+      </c>
+      <c r="S69">
+        <v>20200</v>
+      </c>
+      <c r="T69">
+        <v>4939.6970000000001</v>
+      </c>
+      <c r="U69">
+        <v>444.12200000000001</v>
+      </c>
+      <c r="V69">
+        <v>502.49200000000002</v>
+      </c>
+      <c r="W69">
+        <v>-89.668999999999997</v>
+      </c>
+      <c r="X69">
+        <v>-82.28</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>9.9459999999999997</v>
+      </c>
+      <c r="AA69">
+        <v>218.154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43128</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>303.10700000000003</v>
+      </c>
+      <c r="D70">
+        <v>2331.2930000000001</v>
+      </c>
+      <c r="E70">
+        <v>569.09900000000005</v>
+      </c>
+      <c r="F70">
+        <v>498.29599999999999</v>
+      </c>
+      <c r="G70">
+        <v>1948.269</v>
+      </c>
+      <c r="H70">
+        <v>7858.848</v>
+      </c>
+      <c r="I70">
+        <v>532.84699999999998</v>
+      </c>
+      <c r="J70">
+        <v>624.726</v>
+      </c>
+      <c r="K70">
+        <v>255</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-0.27400000000000002</v>
+      </c>
+      <c r="N70">
+        <v>1323.5139999999999</v>
+      </c>
+      <c r="O70">
+        <v>2703.4740000000002</v>
+      </c>
+      <c r="P70">
+        <v>879.726</v>
+      </c>
+      <c r="Q70">
+        <v>-58.347000000000001</v>
+      </c>
+      <c r="R70">
+        <v>43128</v>
+      </c>
+      <c r="S70">
+        <v>20500</v>
+      </c>
+      <c r="T70">
+        <v>5155.3739999999998</v>
+      </c>
+      <c r="U70">
+        <v>385.77499999999998</v>
+      </c>
+      <c r="V70">
+        <v>304.17700000000002</v>
+      </c>
+      <c r="W70">
+        <v>-89.813999999999993</v>
+      </c>
+      <c r="X70">
+        <v>538.16800000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>2.718</v>
+      </c>
+      <c r="AA70">
+        <v>303.10700000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43219</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>237.38399999999999</v>
+      </c>
+      <c r="D71">
+        <v>2330.5680000000002</v>
+      </c>
+      <c r="E71">
+        <v>551.39200000000005</v>
+      </c>
+      <c r="F71">
+        <v>492.803</v>
+      </c>
+      <c r="G71">
+        <v>1850.78</v>
+      </c>
+      <c r="H71">
+        <v>7829.7489999999998</v>
+      </c>
+      <c r="I71">
+        <v>465.572</v>
+      </c>
+      <c r="J71">
+        <v>624.76300000000003</v>
+      </c>
+      <c r="K71">
+        <v>185</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1148.461</v>
+      </c>
+      <c r="O71">
+        <v>2538.116</v>
+      </c>
+      <c r="P71">
+        <v>809.76300000000003</v>
+      </c>
+      <c r="Q71">
+        <v>-124.20399999999999</v>
+      </c>
+      <c r="R71">
+        <v>43219</v>
+      </c>
+      <c r="S71">
+        <v>20600</v>
+      </c>
+      <c r="T71">
+        <v>5291.6329999999998</v>
+      </c>
+      <c r="U71">
+        <v>261.57100000000003</v>
+      </c>
+      <c r="V71">
+        <v>139.16399999999999</v>
+      </c>
+      <c r="W71">
+        <v>-99.325000000000003</v>
+      </c>
+      <c r="X71">
+        <v>-182.30699999999999</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0.188</v>
+      </c>
+      <c r="AA71">
+        <v>237.38399999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43310</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>210.24299999999999</v>
+      </c>
+      <c r="D72">
+        <v>2359.1419999999998</v>
+      </c>
+      <c r="E72">
+        <v>559.18100000000004</v>
+      </c>
+      <c r="F72">
+        <v>455.04599999999999</v>
+      </c>
+      <c r="G72">
+        <v>1854.31</v>
+      </c>
+      <c r="H72">
+        <v>7895.3729999999996</v>
+      </c>
+      <c r="I72">
+        <v>488.97800000000001</v>
+      </c>
+      <c r="J72">
+        <v>624.80100000000004</v>
+      </c>
+      <c r="K72">
+        <v>95</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1096.8309999999999</v>
+      </c>
+      <c r="O72">
+        <v>2499.605</v>
+      </c>
+      <c r="P72">
+        <v>719.80100000000004</v>
+      </c>
+      <c r="Q72">
+        <v>7.4109999999999996</v>
+      </c>
+      <c r="R72">
+        <v>43310</v>
+      </c>
+      <c r="S72">
+        <v>20400</v>
+      </c>
+      <c r="T72">
+        <v>5395.768</v>
+      </c>
+      <c r="U72">
+        <v>268.98200000000003</v>
+      </c>
+      <c r="V72">
+        <v>299.86399999999998</v>
+      </c>
+      <c r="W72">
+        <v>-99.376000000000005</v>
+      </c>
+      <c r="X72">
+        <v>-178.584</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-9.7690000000000001</v>
+      </c>
+      <c r="AA72">
+        <v>210.24299999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43401</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>261.40600000000001</v>
+      </c>
+      <c r="D73">
+        <v>2524.6970000000001</v>
+      </c>
+      <c r="E73">
+        <v>600.43799999999999</v>
+      </c>
+      <c r="F73">
+        <v>533.32799999999997</v>
+      </c>
+      <c r="G73">
+        <v>2050.1</v>
+      </c>
+      <c r="H73">
+        <v>8142.2920000000004</v>
+      </c>
+      <c r="I73">
+        <v>618.83000000000004</v>
+      </c>
+      <c r="J73">
+        <v>624.84</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1138.914</v>
+      </c>
+      <c r="O73">
+        <v>2537.4740000000002</v>
+      </c>
+      <c r="P73">
+        <v>624.84</v>
+      </c>
+      <c r="Q73">
+        <v>190.154</v>
+      </c>
+      <c r="R73">
+        <v>43401</v>
+      </c>
+      <c r="S73">
+        <v>20100</v>
+      </c>
+      <c r="T73">
+        <v>5604.8180000000002</v>
+      </c>
+      <c r="U73">
+        <v>459.13600000000002</v>
+      </c>
+      <c r="V73">
+        <v>498.524</v>
+      </c>
+      <c r="W73">
+        <v>-99.591999999999999</v>
+      </c>
+      <c r="X73">
+        <v>-165.63900000000001</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-0.68300000000000005</v>
+      </c>
+      <c r="AA73">
+        <v>261.40600000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43492</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>241.42500000000001</v>
+      </c>
+      <c r="D74">
+        <v>2360.355</v>
+      </c>
+      <c r="E74">
+        <v>565.05999999999995</v>
+      </c>
+      <c r="F74">
+        <v>488.334</v>
+      </c>
+      <c r="G74">
+        <v>2100.6860000000001</v>
+      </c>
+      <c r="H74">
+        <v>8155.3980000000001</v>
+      </c>
+      <c r="I74">
+        <v>505.61700000000002</v>
+      </c>
+      <c r="J74">
+        <v>250</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1435.8119999999999</v>
+      </c>
+      <c r="O74">
+        <v>2449.6190000000001</v>
+      </c>
+      <c r="P74">
+        <v>624.87800000000004</v>
+      </c>
+      <c r="Q74">
+        <v>53.552999999999997</v>
+      </c>
+      <c r="R74">
+        <v>43492</v>
+      </c>
+      <c r="S74">
+        <v>18700</v>
+      </c>
+      <c r="T74">
+        <v>5705.7790000000005</v>
+      </c>
+      <c r="U74">
+        <v>512.68899999999996</v>
+      </c>
+      <c r="V74">
+        <v>187.42500000000001</v>
+      </c>
+      <c r="W74">
+        <v>-100.125</v>
+      </c>
+      <c r="X74">
+        <v>-128.899</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>7.3019999999999996</v>
+      </c>
+      <c r="AA74">
+        <v>241.42500000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>282.42899999999997</v>
+      </c>
+      <c r="D75">
+        <v>2344.7440000000001</v>
+      </c>
+      <c r="E75">
+        <v>537.447</v>
+      </c>
+      <c r="F75">
+        <v>469.149</v>
+      </c>
+      <c r="G75">
+        <v>2250.6669999999999</v>
+      </c>
+      <c r="H75">
+        <v>7935.7449999999999</v>
+      </c>
+      <c r="I75">
+        <v>523.673</v>
+      </c>
+      <c r="J75">
+        <v>250</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1051.6759999999999</v>
+      </c>
+      <c r="O75">
+        <v>2033.961</v>
+      </c>
+      <c r="P75">
+        <v>250</v>
+      </c>
+      <c r="Q75">
+        <v>126.63800000000001</v>
+      </c>
+      <c r="R75">
+        <v>43583</v>
+      </c>
+      <c r="S75">
+        <v>18500</v>
+      </c>
+      <c r="T75">
+        <v>5901.7839999999997</v>
+      </c>
+      <c r="U75">
+        <v>639.327</v>
+      </c>
+      <c r="V75">
+        <v>178.16800000000001</v>
+      </c>
+      <c r="W75">
+        <v>-112.16200000000001</v>
+      </c>
+      <c r="X75">
+        <v>-481.57299999999998</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-14.076000000000001</v>
+      </c>
+      <c r="AA75">
+        <v>282.42899999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43674</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>199.44900000000001</v>
+      </c>
+      <c r="D76">
+        <v>2290.7049999999999</v>
+      </c>
+      <c r="E76">
+        <v>528.58299999999997</v>
+      </c>
+      <c r="F76">
+        <v>433.44200000000001</v>
+      </c>
+      <c r="G76">
+        <v>2245.9679999999998</v>
+      </c>
+      <c r="H76">
+        <v>7954.576</v>
+      </c>
+      <c r="I76">
+        <v>513.37199999999996</v>
+      </c>
+      <c r="J76">
+        <v>250</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1073.087</v>
+      </c>
+      <c r="O76">
+        <v>2063.241</v>
+      </c>
+      <c r="P76">
+        <v>250</v>
+      </c>
+      <c r="Q76">
+        <v>-79.128</v>
+      </c>
+      <c r="R76">
+        <v>43674</v>
+      </c>
+      <c r="S76">
+        <v>18700</v>
+      </c>
+      <c r="T76">
+        <v>5891.335</v>
+      </c>
+      <c r="U76">
+        <v>560.19899999999996</v>
+      </c>
+      <c r="V76">
+        <v>207.31899999999999</v>
+      </c>
+      <c r="W76">
+        <v>-112.684</v>
+      </c>
+      <c r="X76">
+        <v>-215.47800000000001</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>-10.651999999999999</v>
+      </c>
+      <c r="AA76">
+        <v>199.44900000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>255.50299999999999</v>
+      </c>
+      <c r="D77">
+        <v>2501.5129999999999</v>
+      </c>
+      <c r="E77">
+        <v>574.39599999999996</v>
+      </c>
+      <c r="F77">
+        <v>493.72300000000001</v>
+      </c>
+      <c r="G77">
+        <v>2361.413</v>
+      </c>
+      <c r="H77">
+        <v>8109.0039999999999</v>
+      </c>
+      <c r="I77">
+        <v>590.03300000000002</v>
+      </c>
+      <c r="J77">
+        <v>250</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1105.049</v>
+      </c>
+      <c r="O77">
+        <v>2183.4690000000001</v>
+      </c>
+      <c r="P77">
+        <v>250</v>
+      </c>
+      <c r="Q77">
+        <v>112.702</v>
+      </c>
+      <c r="R77">
+        <v>43765</v>
+      </c>
+      <c r="S77">
+        <v>18800</v>
+      </c>
+      <c r="T77">
+        <v>5925.5349999999999</v>
+      </c>
+      <c r="U77">
+        <v>672.90099999999995</v>
+      </c>
+      <c r="V77">
+        <v>350.084</v>
+      </c>
+      <c r="W77">
+        <v>-112.08199999999999</v>
+      </c>
+      <c r="X77">
+        <v>-100.294</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>-3.5489999999999999</v>
+      </c>
+      <c r="AA77">
+        <v>255.50299999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>242.87200000000001</v>
+      </c>
+      <c r="D78">
+        <v>2384.4340000000002</v>
+      </c>
+      <c r="E78">
+        <v>562.48299999999995</v>
+      </c>
+      <c r="F78">
+        <v>468.42</v>
+      </c>
+      <c r="G78">
+        <v>2394.9670000000001</v>
+      </c>
+      <c r="H78">
+        <v>8290.1090000000004</v>
+      </c>
+      <c r="I78">
+        <v>490.04199999999997</v>
+      </c>
+      <c r="J78">
+        <v>250</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>-2.0190000000000001</v>
+      </c>
+      <c r="N78">
+        <v>1023.085</v>
+      </c>
+      <c r="O78">
+        <v>2194.0639999999999</v>
+      </c>
+      <c r="P78">
+        <v>379.52</v>
+      </c>
+      <c r="Q78">
+        <v>51.518000000000001</v>
+      </c>
+      <c r="R78">
+        <v>43856</v>
+      </c>
+      <c r="S78">
+        <v>18700</v>
+      </c>
+      <c r="T78">
+        <v>6096.0450000000001</v>
+      </c>
+      <c r="U78">
+        <v>724.41899999999998</v>
+      </c>
+      <c r="V78">
+        <v>188.41800000000001</v>
+      </c>
+      <c r="W78">
+        <v>-112.249</v>
+      </c>
+      <c r="X78">
+        <v>-77.915000000000006</v>
+      </c>
+      <c r="Y78">
+        <v>107.533</v>
+      </c>
+      <c r="Z78">
+        <v>-4.5250000000000004</v>
+      </c>
+      <c r="AA78">
+        <v>242.87100000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>227.73400000000001</v>
+      </c>
+      <c r="D79">
+        <v>2422.4650000000001</v>
+      </c>
+      <c r="E79">
+        <v>536.00900000000001</v>
+      </c>
+      <c r="F79">
+        <v>477.35199999999998</v>
+      </c>
+      <c r="G79">
+        <v>2248.8960000000002</v>
+      </c>
+      <c r="H79">
+        <v>8395.1810000000005</v>
+      </c>
+      <c r="I79">
+        <v>502.13299999999998</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1324.595</v>
+      </c>
+      <c r="O79">
+        <v>2228.98</v>
+      </c>
+      <c r="P79">
+        <v>376.262</v>
+      </c>
+      <c r="Q79">
+        <v>-118.346</v>
+      </c>
+      <c r="R79">
+        <v>43947</v>
+      </c>
+      <c r="S79">
+        <v>18700</v>
+      </c>
+      <c r="T79">
+        <v>6166.201</v>
+      </c>
+      <c r="U79">
+        <v>606.07299999999998</v>
+      </c>
+      <c r="V79">
+        <v>359.87200000000001</v>
+      </c>
+      <c r="W79">
+        <v>-124.501</v>
+      </c>
+      <c r="X79">
+        <v>-110.816</v>
+      </c>
+      <c r="Y79">
+        <v>104.2</v>
+      </c>
+      <c r="Z79">
+        <v>-13.47</v>
+      </c>
+      <c r="AA79">
+        <v>227.73400000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>203.12</v>
+      </c>
+      <c r="D80">
+        <v>2381.4569999999999</v>
+      </c>
+      <c r="E80">
+        <v>648.99099999999999</v>
+      </c>
+      <c r="F80">
+        <v>422.42500000000001</v>
+      </c>
+      <c r="G80">
+        <v>3409.7739999999999</v>
+      </c>
+      <c r="H80">
+        <v>9600.4719999999998</v>
+      </c>
+      <c r="I80">
+        <v>537.53499999999997</v>
+      </c>
+      <c r="J80">
+        <v>992.03700000000003</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1427.0509999999999</v>
+      </c>
+      <c r="O80">
+        <v>3328.7249999999999</v>
+      </c>
+      <c r="P80">
+        <v>1363.3109999999999</v>
+      </c>
+      <c r="Q80">
+        <v>1123.2940000000001</v>
+      </c>
+      <c r="R80">
+        <v>44038</v>
+      </c>
+      <c r="S80">
+        <v>18700</v>
+      </c>
+      <c r="T80">
+        <v>6271.7470000000003</v>
+      </c>
+      <c r="U80">
+        <v>1729.3679999999999</v>
+      </c>
+      <c r="V80">
+        <v>329.79599999999999</v>
+      </c>
+      <c r="W80">
+        <v>-125.253</v>
+      </c>
+      <c r="X80">
+        <v>872.72299999999996</v>
+      </c>
+      <c r="Y80">
+        <v>99.825999999999993</v>
+      </c>
+      <c r="Z80">
+        <v>6.9290000000000003</v>
+      </c>
+      <c r="AA80">
+        <v>203.119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>234.35599999999999</v>
+      </c>
+      <c r="D81">
+        <v>2420.105</v>
+      </c>
+      <c r="E81">
+        <v>702.41899999999998</v>
+      </c>
+      <c r="F81">
+        <v>537.76499999999999</v>
+      </c>
+      <c r="G81">
+        <v>3579.0630000000001</v>
+      </c>
+      <c r="H81">
+        <v>9908.2819999999992</v>
+      </c>
+      <c r="I81">
+        <v>644.60900000000004</v>
+      </c>
+      <c r="J81">
+        <v>992.21400000000006</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1503.9649999999999</v>
+      </c>
+      <c r="O81">
+        <v>3477.9560000000001</v>
+      </c>
+      <c r="P81">
+        <v>1358.778</v>
+      </c>
+      <c r="Q81">
+        <v>-15.058999999999999</v>
+      </c>
+      <c r="R81">
+        <v>44129</v>
+      </c>
+      <c r="S81">
+        <v>19100</v>
+      </c>
+      <c r="T81">
+        <v>6430.326</v>
+      </c>
+      <c r="U81">
+        <v>1714.309</v>
+      </c>
+      <c r="V81">
+        <v>249.93799999999999</v>
+      </c>
+      <c r="W81">
+        <v>-125.373</v>
+      </c>
+      <c r="X81">
+        <v>-117.82</v>
+      </c>
+      <c r="Y81">
+        <v>95.847999999999999</v>
+      </c>
+      <c r="Z81">
+        <v>-12.647</v>
+      </c>
+      <c r="AA81">
+        <v>234.35599999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>222.28299999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2461.1469999999999</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>706.654</v>
       </c>
-      <c r="F42">
-        <v>450.17</v>
-      </c>
-      <c r="G42">
+      <c r="F82">
+        <v>465.17</v>
+      </c>
+      <c r="G82">
         <v>3601.663</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>9957.9320000000007</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>558.52300000000002</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1043.05</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
         <v>-2.165</v>
       </c>
-      <c r="N42">
+      <c r="N82">
         <v>1417.4690000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>3402.2049999999999</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1301.74</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>37.231999999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44220</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>20100</v>
+      </c>
+      <c r="T82">
         <v>6555.7269999999999</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1751.5409999999999</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>205.68600000000001</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-125.51600000000001</v>
       </c>
-      <c r="X42">
-        <v>-134.75399999999999</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>-0.39900000000000002</v>
-      </c>
-      <c r="AA42">
+      <c r="X82">
+        <v>-134.75299999999999</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>-1.355</v>
+      </c>
+      <c r="AA82">
         <v>222.28299999999999</v>
       </c>
     </row>
